--- a/SolrScripts/results/hedges/hedges.xlsx
+++ b/SolrScripts/results/hedges/hedges.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18240" windowHeight="9120" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18240" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="hedges-gc" sheetId="1" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D313" sqref="D313"/>
     </sheetView>
   </sheetViews>
@@ -2383,7 +2383,7 @@
         <v>15522</v>
       </c>
       <c r="E2" s="21">
-        <f>D2/71329</f>
+        <f t="shared" ref="E2:E65" si="0">D2/71329</f>
         <v>0.21761135022220976</v>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
         <v>7079</v>
       </c>
       <c r="E3" s="21">
-        <f>D3/71329</f>
+        <f t="shared" si="0"/>
         <v>9.9244346619187143E-2</v>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
         <v>6948</v>
       </c>
       <c r="E4" s="21">
-        <f>D4/71329</f>
+        <f t="shared" si="0"/>
         <v>9.7407786454317316E-2</v>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
         <v>5064</v>
       </c>
       <c r="E5" s="21">
-        <f>D5/71329</f>
+        <f t="shared" si="0"/>
         <v>7.0994966983975658E-2</v>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
         <v>3887</v>
       </c>
       <c r="E6" s="21">
-        <f>D6/71329</f>
+        <f t="shared" si="0"/>
         <v>5.4493964586633768E-2</v>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
         <v>2969</v>
       </c>
       <c r="E7" s="21">
-        <f>D7/71329</f>
+        <f t="shared" si="0"/>
         <v>4.1624023889301684E-2</v>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
         <v>2866</v>
       </c>
       <c r="E8" s="21">
-        <f>D8/71329</f>
+        <f t="shared" si="0"/>
         <v>4.0180010935243732E-2</v>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
         <v>2282</v>
       </c>
       <c r="E9" s="21">
-        <f>D9/71329</f>
+        <f t="shared" si="0"/>
         <v>3.1992597681167551E-2</v>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
         <v>1883</v>
       </c>
       <c r="E10" s="21">
-        <f>D10/71329</f>
+        <f t="shared" si="0"/>
         <v>2.6398799927098374E-2</v>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
         <v>1599</v>
       </c>
       <c r="E11" s="21">
-        <f>D11/71329</f>
+        <f t="shared" si="0"/>
         <v>2.2417249646006533E-2</v>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
         <v>1404</v>
       </c>
       <c r="E12" s="21">
-        <f>D12/71329</f>
+        <f t="shared" si="0"/>
         <v>1.9683438713566714E-2</v>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
         <v>1359</v>
       </c>
       <c r="E13" s="21">
-        <f>D13/71329</f>
+        <f t="shared" si="0"/>
         <v>1.9052559267619062E-2</v>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
         <v>1267</v>
       </c>
       <c r="E14" s="21">
-        <f>D14/71329</f>
+        <f t="shared" si="0"/>
         <v>1.7762761289237195E-2</v>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
         <v>1064</v>
       </c>
       <c r="E15" s="21">
-        <f>D15/71329</f>
+        <f t="shared" si="0"/>
         <v>1.4916794010851126E-2</v>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
         <v>1032</v>
       </c>
       <c r="E16" s="21">
-        <f>D16/71329</f>
+        <f t="shared" si="0"/>
         <v>1.446816862706613E-2</v>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
         <v>961</v>
       </c>
       <c r="E17" s="21">
-        <f>D17/71329</f>
+        <f t="shared" si="0"/>
         <v>1.3472781056793171E-2</v>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
         <v>913</v>
       </c>
       <c r="E18" s="21">
-        <f>D18/71329</f>
+        <f t="shared" si="0"/>
         <v>1.2799842981115675E-2</v>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
         <v>839</v>
       </c>
       <c r="E19" s="21">
-        <f>D19/71329</f>
+        <f t="shared" si="0"/>
         <v>1.1762396781112872E-2</v>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
         <v>755</v>
       </c>
       <c r="E20" s="21">
-        <f>D20/71329</f>
+        <f t="shared" si="0"/>
         <v>1.0584755148677256E-2</v>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
         <v>619</v>
       </c>
       <c r="E21" s="21">
-        <f>D21/71329</f>
+        <f t="shared" si="0"/>
         <v>8.6780972675910215E-3</v>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
         <v>422</v>
       </c>
       <c r="E22" s="21">
-        <f>D22/71329</f>
+        <f t="shared" si="0"/>
         <v>5.9162472486646387E-3</v>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
         <v>400</v>
       </c>
       <c r="E23" s="21">
-        <f>D23/71329</f>
+        <f t="shared" si="0"/>
         <v>5.6078172973124535E-3</v>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
         <v>384</v>
       </c>
       <c r="E24" s="21">
-        <f>D24/71329</f>
+        <f t="shared" si="0"/>
         <v>5.3835046054199554E-3</v>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
         <v>359</v>
       </c>
       <c r="E25" s="21">
-        <f>D25/71329</f>
+        <f t="shared" si="0"/>
         <v>5.033016024337927E-3</v>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
         <v>345</v>
       </c>
       <c r="E26" s="21">
-        <f>D26/71329</f>
+        <f t="shared" si="0"/>
         <v>4.8367424189319913E-3</v>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
         <v>310</v>
       </c>
       <c r="E27" s="21">
-        <f>D27/71329</f>
+        <f t="shared" si="0"/>
         <v>4.3460584054171511E-3</v>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
         <v>305</v>
       </c>
       <c r="E28" s="21">
-        <f>D28/71329</f>
+        <f t="shared" si="0"/>
         <v>4.2759606892007456E-3</v>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
         <v>293</v>
       </c>
       <c r="E29" s="21">
-        <f>D29/71329</f>
+        <f t="shared" si="0"/>
         <v>4.1077261702813722E-3</v>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
         <v>245</v>
       </c>
       <c r="E30" s="21">
-        <f>D30/71329</f>
+        <f t="shared" si="0"/>
         <v>3.4347880946038779E-3</v>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
         <v>232</v>
       </c>
       <c r="E31" s="21">
-        <f>D31/71329</f>
+        <f t="shared" si="0"/>
         <v>3.252534032441223E-3</v>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
         <v>217</v>
       </c>
       <c r="E32" s="21">
-        <f>D32/71329</f>
+        <f t="shared" si="0"/>
         <v>3.042240883792006E-3</v>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
         <v>210</v>
       </c>
       <c r="E33" s="21">
-        <f>D33/71329</f>
+        <f t="shared" si="0"/>
         <v>2.9441040810890382E-3</v>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
         <v>209</v>
       </c>
       <c r="E34" s="21">
-        <f>D34/71329</f>
+        <f t="shared" si="0"/>
         <v>2.930084537845757E-3</v>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
         <v>197</v>
       </c>
       <c r="E35" s="21">
-        <f>D35/71329</f>
+        <f t="shared" si="0"/>
         <v>2.7618500189263832E-3</v>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
         <v>186</v>
       </c>
       <c r="E36" s="21">
-        <f>D36/71329</f>
+        <f t="shared" si="0"/>
         <v>2.607635043250291E-3</v>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
         <v>184</v>
       </c>
       <c r="E37" s="21">
-        <f>D37/71329</f>
+        <f t="shared" si="0"/>
         <v>2.5795959567637286E-3</v>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
         <v>180</v>
       </c>
       <c r="E38" s="21">
-        <f>D38/71329</f>
+        <f t="shared" si="0"/>
         <v>2.5235177837906039E-3</v>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
         <v>176</v>
       </c>
       <c r="E39" s="21">
-        <f>D39/71329</f>
+        <f t="shared" si="0"/>
         <v>2.4674396108174796E-3</v>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
         <v>158</v>
       </c>
       <c r="E40" s="21">
-        <f>D40/71329</f>
+        <f t="shared" si="0"/>
         <v>2.2150878324384191E-3</v>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
         <v>155</v>
       </c>
       <c r="E41" s="21">
-        <f>D41/71329</f>
+        <f t="shared" si="0"/>
         <v>2.1730292027085756E-3</v>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
         <v>151</v>
       </c>
       <c r="E42" s="21">
-        <f>D42/71329</f>
+        <f t="shared" si="0"/>
         <v>2.1169510297354512E-3</v>
       </c>
     </row>
@@ -3203,7 +3203,7 @@
         <v>146</v>
       </c>
       <c r="E43" s="21">
-        <f>D43/71329</f>
+        <f t="shared" si="0"/>
         <v>2.0468533135190457E-3</v>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
         <v>145</v>
       </c>
       <c r="E44" s="21">
-        <f>D44/71329</f>
+        <f t="shared" si="0"/>
         <v>2.0328337702757646E-3</v>
       </c>
     </row>
@@ -3243,7 +3243,7 @@
         <v>136</v>
       </c>
       <c r="E45" s="21">
-        <f>D45/71329</f>
+        <f t="shared" si="0"/>
         <v>1.9066578810862341E-3</v>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
         <v>120</v>
       </c>
       <c r="E46" s="21">
-        <f>D46/71329</f>
+        <f t="shared" si="0"/>
         <v>1.682345189193736E-3</v>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
         <v>118</v>
       </c>
       <c r="E47" s="21">
-        <f>D47/71329</f>
+        <f t="shared" si="0"/>
         <v>1.6543061027071738E-3</v>
       </c>
     </row>
@@ -3303,7 +3303,7 @@
         <v>117</v>
       </c>
       <c r="E48" s="21">
-        <f>D48/71329</f>
+        <f t="shared" si="0"/>
         <v>1.6402865594638927E-3</v>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
         <v>113</v>
       </c>
       <c r="E49" s="21">
-        <f>D49/71329</f>
+        <f t="shared" si="0"/>
         <v>1.5842083864907681E-3</v>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
         <v>112</v>
       </c>
       <c r="E50" s="21">
-        <f>D50/71329</f>
+        <f t="shared" si="0"/>
         <v>1.570188843247487E-3</v>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
         <v>112</v>
       </c>
       <c r="E51" s="21">
-        <f>D51/71329</f>
+        <f t="shared" si="0"/>
         <v>1.570188843247487E-3</v>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
         <v>110</v>
       </c>
       <c r="E52" s="21">
-        <f>D52/71329</f>
+        <f t="shared" si="0"/>
         <v>1.5421497567609248E-3</v>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
         <v>109</v>
       </c>
       <c r="E53" s="21">
-        <f>D53/71329</f>
+        <f t="shared" si="0"/>
         <v>1.5281302135176436E-3</v>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
         <v>108</v>
       </c>
       <c r="E54" s="21">
-        <f>D54/71329</f>
+        <f t="shared" si="0"/>
         <v>1.5141106702743624E-3</v>
       </c>
     </row>
@@ -3443,7 +3443,7 @@
         <v>106</v>
       </c>
       <c r="E55" s="21">
-        <f>D55/71329</f>
+        <f t="shared" si="0"/>
         <v>1.4860715837878003E-3</v>
       </c>
     </row>
@@ -3463,7 +3463,7 @@
         <v>104</v>
       </c>
       <c r="E56" s="21">
-        <f>D56/71329</f>
+        <f t="shared" si="0"/>
         <v>1.4580324973012379E-3</v>
       </c>
     </row>
@@ -3483,7 +3483,7 @@
         <v>99</v>
       </c>
       <c r="E57" s="21">
-        <f>D57/71329</f>
+        <f t="shared" si="0"/>
         <v>1.3879347810848322E-3</v>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
         <v>98</v>
       </c>
       <c r="E58" s="21">
-        <f>D58/71329</f>
+        <f t="shared" si="0"/>
         <v>1.3739152378415512E-3</v>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
         <v>97</v>
       </c>
       <c r="E59" s="21">
-        <f>D59/71329</f>
+        <f t="shared" si="0"/>
         <v>1.35989569459827E-3</v>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
         <v>95</v>
       </c>
       <c r="E60" s="21">
-        <f>D60/71329</f>
+        <f t="shared" si="0"/>
         <v>1.3318566081117077E-3</v>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
         <v>94</v>
       </c>
       <c r="E61" s="21">
-        <f>D61/71329</f>
+        <f t="shared" si="0"/>
         <v>1.3178370648684267E-3</v>
       </c>
     </row>
@@ -3583,7 +3583,7 @@
         <v>91</v>
       </c>
       <c r="E62" s="21">
-        <f>D62/71329</f>
+        <f t="shared" si="0"/>
         <v>1.2757784351385831E-3</v>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
         <v>87</v>
       </c>
       <c r="E63" s="21">
-        <f>D63/71329</f>
+        <f t="shared" si="0"/>
         <v>1.2197002621654586E-3</v>
       </c>
     </row>
@@ -3623,7 +3623,7 @@
         <v>82</v>
       </c>
       <c r="E64" s="21">
-        <f>D64/71329</f>
+        <f t="shared" si="0"/>
         <v>1.1496025459490529E-3</v>
       </c>
     </row>
@@ -3643,7 +3643,7 @@
         <v>81</v>
       </c>
       <c r="E65" s="21">
-        <f>D65/71329</f>
+        <f t="shared" si="0"/>
         <v>1.1355830027057719E-3</v>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
         <v>80</v>
       </c>
       <c r="E66" s="21">
-        <f>D66/71329</f>
+        <f t="shared" ref="E66:E129" si="1">D66/71329</f>
         <v>1.1215634594624907E-3</v>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
         <v>78</v>
       </c>
       <c r="E67" s="21">
-        <f>D67/71329</f>
+        <f t="shared" si="1"/>
         <v>1.0935243729759284E-3</v>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
         <v>78</v>
       </c>
       <c r="E68" s="21">
-        <f>D68/71329</f>
+        <f t="shared" si="1"/>
         <v>1.0935243729759284E-3</v>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
         <v>77</v>
       </c>
       <c r="E69" s="21">
-        <f>D69/71329</f>
+        <f t="shared" si="1"/>
         <v>1.0795048297326474E-3</v>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="21">
-        <f>D70/71329</f>
+        <f t="shared" si="1"/>
         <v>9.6734848378639824E-4</v>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
         <v>69</v>
       </c>
       <c r="E71" s="21">
-        <f>D71/71329</f>
+        <f t="shared" si="1"/>
         <v>9.6734848378639824E-4</v>
       </c>
     </row>
@@ -3783,7 +3783,7 @@
         <v>68</v>
       </c>
       <c r="E72" s="21">
-        <f>D72/71329</f>
+        <f t="shared" si="1"/>
         <v>9.5332894054311705E-4</v>
       </c>
     </row>
@@ -3803,7 +3803,7 @@
         <v>65</v>
       </c>
       <c r="E73" s="21">
-        <f>D73/71329</f>
+        <f t="shared" si="1"/>
         <v>9.1127031081327371E-4</v>
       </c>
     </row>
@@ -3823,7 +3823,7 @@
         <v>64</v>
       </c>
       <c r="E74" s="21">
-        <f>D74/71329</f>
+        <f t="shared" si="1"/>
         <v>8.9725076756999253E-4</v>
       </c>
     </row>
@@ -3843,7 +3843,7 @@
         <v>64</v>
       </c>
       <c r="E75" s="21">
-        <f>D75/71329</f>
+        <f t="shared" si="1"/>
         <v>8.9725076756999253E-4</v>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
         <v>62</v>
       </c>
       <c r="E76" s="21">
-        <f>D76/71329</f>
+        <f t="shared" si="1"/>
         <v>8.6921168108343026E-4</v>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
         <v>52</v>
       </c>
       <c r="E77" s="21">
-        <f>D77/71329</f>
+        <f t="shared" si="1"/>
         <v>7.2901624865061895E-4</v>
       </c>
     </row>
@@ -3903,7 +3903,7 @@
         <v>51</v>
       </c>
       <c r="E78" s="21">
-        <f>D78/71329</f>
+        <f t="shared" si="1"/>
         <v>7.1499670540733787E-4</v>
       </c>
     </row>
@@ -3923,7 +3923,7 @@
         <v>50</v>
       </c>
       <c r="E79" s="21">
-        <f>D79/71329</f>
+        <f t="shared" si="1"/>
         <v>7.0097716216405669E-4</v>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
         <v>50</v>
       </c>
       <c r="E80" s="21">
-        <f>D80/71329</f>
+        <f t="shared" si="1"/>
         <v>7.0097716216405669E-4</v>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
         <v>48</v>
       </c>
       <c r="E81" s="21">
-        <f>D81/71329</f>
+        <f t="shared" si="1"/>
         <v>6.7293807567749442E-4</v>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
         <v>47</v>
       </c>
       <c r="E82" s="21">
-        <f>D82/71329</f>
+        <f t="shared" si="1"/>
         <v>6.5891853243421335E-4</v>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
         <v>43</v>
       </c>
       <c r="E83" s="21">
-        <f>D83/71329</f>
+        <f t="shared" si="1"/>
         <v>6.0284035946108871E-4</v>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
         <v>42</v>
       </c>
       <c r="E84" s="21">
-        <f>D84/71329</f>
+        <f t="shared" si="1"/>
         <v>5.8882081621780763E-4</v>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
         <v>41</v>
       </c>
       <c r="E85" s="21">
-        <f>D85/71329</f>
+        <f t="shared" si="1"/>
         <v>5.7480127297452645E-4</v>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
         <v>41</v>
       </c>
       <c r="E86" s="21">
-        <f>D86/71329</f>
+        <f t="shared" si="1"/>
         <v>5.7480127297452645E-4</v>
       </c>
     </row>
@@ -4083,7 +4083,7 @@
         <v>41</v>
       </c>
       <c r="E87" s="21">
-        <f>D87/71329</f>
+        <f t="shared" si="1"/>
         <v>5.7480127297452645E-4</v>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
         <v>40</v>
       </c>
       <c r="E88" s="21">
-        <f>D88/71329</f>
+        <f t="shared" si="1"/>
         <v>5.6078172973124537E-4</v>
       </c>
     </row>
@@ -4123,7 +4123,7 @@
         <v>39</v>
       </c>
       <c r="E89" s="21">
-        <f>D89/71329</f>
+        <f t="shared" si="1"/>
         <v>5.4676218648796418E-4</v>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
         <v>39</v>
       </c>
       <c r="E90" s="21">
-        <f>D90/71329</f>
+        <f t="shared" si="1"/>
         <v>5.4676218648796418E-4</v>
       </c>
     </row>
@@ -4163,7 +4163,7 @@
         <v>38</v>
       </c>
       <c r="E91" s="21">
-        <f>D91/71329</f>
+        <f t="shared" si="1"/>
         <v>5.3274264324468311E-4</v>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
         <v>38</v>
       </c>
       <c r="E92" s="21">
-        <f>D92/71329</f>
+        <f t="shared" si="1"/>
         <v>5.3274264324468311E-4</v>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
         <v>37</v>
       </c>
       <c r="E93" s="21">
-        <f>D93/71329</f>
+        <f t="shared" si="1"/>
         <v>5.1872310000140192E-4</v>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
         <v>36</v>
       </c>
       <c r="E94" s="21">
-        <f>D94/71329</f>
+        <f t="shared" si="1"/>
         <v>5.0470355675812084E-4</v>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
         <v>36</v>
       </c>
       <c r="E95" s="21">
-        <f>D95/71329</f>
+        <f t="shared" si="1"/>
         <v>5.0470355675812084E-4</v>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
         <v>36</v>
       </c>
       <c r="E96" s="21">
-        <f>D96/71329</f>
+        <f t="shared" si="1"/>
         <v>5.0470355675812084E-4</v>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
         <v>36</v>
       </c>
       <c r="E97" s="21">
-        <f>D97/71329</f>
+        <f t="shared" si="1"/>
         <v>5.0470355675812084E-4</v>
       </c>
     </row>
@@ -4303,7 +4303,7 @@
         <v>33</v>
       </c>
       <c r="E98" s="21">
-        <f>D98/71329</f>
+        <f t="shared" si="1"/>
         <v>4.626449270282774E-4</v>
       </c>
     </row>
@@ -4323,7 +4323,7 @@
         <v>33</v>
       </c>
       <c r="E99" s="21">
-        <f>D99/71329</f>
+        <f t="shared" si="1"/>
         <v>4.626449270282774E-4</v>
       </c>
     </row>
@@ -4343,7 +4343,7 @@
         <v>32</v>
       </c>
       <c r="E100" s="21">
-        <f>D100/71329</f>
+        <f t="shared" si="1"/>
         <v>4.4862538378499626E-4</v>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
         <v>32</v>
       </c>
       <c r="E101" s="21">
-        <f>D101/71329</f>
+        <f t="shared" si="1"/>
         <v>4.4862538378499626E-4</v>
       </c>
     </row>
@@ -4383,7 +4383,7 @@
         <v>32</v>
       </c>
       <c r="E102" s="21">
-        <f>D102/71329</f>
+        <f t="shared" si="1"/>
         <v>4.4862538378499626E-4</v>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
         <v>32</v>
       </c>
       <c r="E103" s="21">
-        <f>D103/71329</f>
+        <f t="shared" si="1"/>
         <v>4.4862538378499626E-4</v>
       </c>
     </row>
@@ -4423,7 +4423,7 @@
         <v>30</v>
       </c>
       <c r="E104" s="21">
-        <f>D104/71329</f>
+        <f t="shared" si="1"/>
         <v>4.20586297298434E-4</v>
       </c>
     </row>
@@ -4443,7 +4443,7 @@
         <v>30</v>
       </c>
       <c r="E105" s="21">
-        <f>D105/71329</f>
+        <f t="shared" si="1"/>
         <v>4.20586297298434E-4</v>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
         <v>30</v>
       </c>
       <c r="E106" s="21">
-        <f>D106/71329</f>
+        <f t="shared" si="1"/>
         <v>4.20586297298434E-4</v>
       </c>
     </row>
@@ -4483,7 +4483,7 @@
         <v>28</v>
       </c>
       <c r="E107" s="21">
-        <f>D107/71329</f>
+        <f t="shared" si="1"/>
         <v>3.9254721081187174E-4</v>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
         <v>27</v>
       </c>
       <c r="E108" s="21">
-        <f>D108/71329</f>
+        <f t="shared" si="1"/>
         <v>3.7852766756859061E-4</v>
       </c>
     </row>
@@ -4523,7 +4523,7 @@
         <v>26</v>
       </c>
       <c r="E109" s="21">
-        <f>D109/71329</f>
+        <f t="shared" si="1"/>
         <v>3.6450812432530947E-4</v>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
         <v>26</v>
       </c>
       <c r="E110" s="21">
-        <f>D110/71329</f>
+        <f t="shared" si="1"/>
         <v>3.6450812432530947E-4</v>
       </c>
     </row>
@@ -4563,7 +4563,7 @@
         <v>26</v>
       </c>
       <c r="E111" s="21">
-        <f>D111/71329</f>
+        <f t="shared" si="1"/>
         <v>3.6450812432530947E-4</v>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
         <v>25</v>
       </c>
       <c r="E112" s="21">
-        <f>D112/71329</f>
+        <f t="shared" si="1"/>
         <v>3.5048858108202834E-4</v>
       </c>
     </row>
@@ -4603,7 +4603,7 @@
         <v>25</v>
       </c>
       <c r="E113" s="21">
-        <f>D113/71329</f>
+        <f t="shared" si="1"/>
         <v>3.5048858108202834E-4</v>
       </c>
     </row>
@@ -4623,7 +4623,7 @@
         <v>24</v>
       </c>
       <c r="E114" s="21">
-        <f>D114/71329</f>
+        <f t="shared" si="1"/>
         <v>3.3646903783874721E-4</v>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
         <v>23</v>
       </c>
       <c r="E115" s="21">
-        <f>D115/71329</f>
+        <f t="shared" si="1"/>
         <v>3.2244949459546608E-4</v>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
         <v>23</v>
       </c>
       <c r="E116" s="21">
-        <f>D116/71329</f>
+        <f t="shared" si="1"/>
         <v>3.2244949459546608E-4</v>
       </c>
     </row>
@@ -4683,7 +4683,7 @@
         <v>22</v>
       </c>
       <c r="E117" s="21">
-        <f>D117/71329</f>
+        <f t="shared" si="1"/>
         <v>3.0842995135218495E-4</v>
       </c>
     </row>
@@ -4703,7 +4703,7 @@
         <v>22</v>
       </c>
       <c r="E118" s="21">
-        <f>D118/71329</f>
+        <f t="shared" si="1"/>
         <v>3.0842995135218495E-4</v>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
         <v>20</v>
       </c>
       <c r="E119" s="21">
-        <f>D119/71329</f>
+        <f t="shared" si="1"/>
         <v>2.8039086486562269E-4</v>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
         <v>20</v>
       </c>
       <c r="E120" s="21">
-        <f>D120/71329</f>
+        <f t="shared" si="1"/>
         <v>2.8039086486562269E-4</v>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
         <v>20</v>
       </c>
       <c r="E121" s="21">
-        <f>D121/71329</f>
+        <f t="shared" si="1"/>
         <v>2.8039086486562269E-4</v>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
         <v>19</v>
       </c>
       <c r="E122" s="21">
-        <f>D122/71329</f>
+        <f t="shared" si="1"/>
         <v>2.6637132162234155E-4</v>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
         <v>19</v>
       </c>
       <c r="E123" s="21">
-        <f>D123/71329</f>
+        <f t="shared" si="1"/>
         <v>2.6637132162234155E-4</v>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
         <v>18</v>
       </c>
       <c r="E124" s="21">
-        <f>D124/71329</f>
+        <f t="shared" si="1"/>
         <v>2.5235177837906042E-4</v>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
         <v>18</v>
       </c>
       <c r="E125" s="21">
-        <f>D125/71329</f>
+        <f t="shared" si="1"/>
         <v>2.5235177837906042E-4</v>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
         <v>18</v>
       </c>
       <c r="E126" s="21">
-        <f>D126/71329</f>
+        <f t="shared" si="1"/>
         <v>2.5235177837906042E-4</v>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
         <v>18</v>
       </c>
       <c r="E127" s="21">
-        <f>D127/71329</f>
+        <f t="shared" si="1"/>
         <v>2.5235177837906042E-4</v>
       </c>
     </row>
@@ -4903,7 +4903,7 @@
         <v>17</v>
       </c>
       <c r="E128" s="21">
-        <f>D128/71329</f>
+        <f t="shared" si="1"/>
         <v>2.3833223513577926E-4</v>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
         <v>17</v>
       </c>
       <c r="E129" s="21">
-        <f>D129/71329</f>
+        <f t="shared" si="1"/>
         <v>2.3833223513577926E-4</v>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
         <v>16</v>
       </c>
       <c r="E130" s="21">
-        <f>D130/71329</f>
+        <f t="shared" ref="E130:E193" si="2">D130/71329</f>
         <v>2.2431269189249813E-4</v>
       </c>
     </row>
@@ -4963,7 +4963,7 @@
         <v>15</v>
       </c>
       <c r="E131" s="21">
-        <f>D131/71329</f>
+        <f t="shared" si="2"/>
         <v>2.10293148649217E-4</v>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
         <v>15</v>
       </c>
       <c r="E132" s="21">
-        <f>D132/71329</f>
+        <f t="shared" si="2"/>
         <v>2.10293148649217E-4</v>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
         <v>13</v>
       </c>
       <c r="E133" s="21">
-        <f>D133/71329</f>
+        <f t="shared" si="2"/>
         <v>1.8225406216265474E-4</v>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
         <v>13</v>
       </c>
       <c r="E134" s="21">
-        <f>D134/71329</f>
+        <f t="shared" si="2"/>
         <v>1.8225406216265474E-4</v>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
         <v>13</v>
       </c>
       <c r="E135" s="21">
-        <f>D135/71329</f>
+        <f t="shared" si="2"/>
         <v>1.8225406216265474E-4</v>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
         <v>13</v>
       </c>
       <c r="E136" s="21">
-        <f>D136/71329</f>
+        <f t="shared" si="2"/>
         <v>1.8225406216265474E-4</v>
       </c>
     </row>
@@ -5083,7 +5083,7 @@
         <v>13</v>
       </c>
       <c r="E137" s="21">
-        <f>D137/71329</f>
+        <f t="shared" si="2"/>
         <v>1.8225406216265474E-4</v>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
         <v>13</v>
       </c>
       <c r="E138" s="21">
-        <f>D138/71329</f>
+        <f t="shared" si="2"/>
         <v>1.8225406216265474E-4</v>
       </c>
     </row>
@@ -5123,7 +5123,7 @@
         <v>13</v>
       </c>
       <c r="E139" s="21">
-        <f>D139/71329</f>
+        <f t="shared" si="2"/>
         <v>1.8225406216265474E-4</v>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
         <v>12</v>
       </c>
       <c r="E140" s="21">
-        <f>D140/71329</f>
+        <f t="shared" si="2"/>
         <v>1.6823451891937361E-4</v>
       </c>
     </row>
@@ -5163,7 +5163,7 @@
         <v>12</v>
       </c>
       <c r="E141" s="21">
-        <f>D141/71329</f>
+        <f t="shared" si="2"/>
         <v>1.6823451891937361E-4</v>
       </c>
     </row>
@@ -5183,7 +5183,7 @@
         <v>12</v>
       </c>
       <c r="E142" s="21">
-        <f>D142/71329</f>
+        <f t="shared" si="2"/>
         <v>1.6823451891937361E-4</v>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
         <v>11</v>
       </c>
       <c r="E143" s="21">
-        <f>D143/71329</f>
+        <f t="shared" si="2"/>
         <v>1.5421497567609247E-4</v>
       </c>
     </row>
@@ -5223,7 +5223,7 @@
         <v>11</v>
       </c>
       <c r="E144" s="21">
-        <f>D144/71329</f>
+        <f t="shared" si="2"/>
         <v>1.5421497567609247E-4</v>
       </c>
     </row>
@@ -5243,7 +5243,7 @@
         <v>11</v>
       </c>
       <c r="E145" s="21">
-        <f>D145/71329</f>
+        <f t="shared" si="2"/>
         <v>1.5421497567609247E-4</v>
       </c>
     </row>
@@ -5263,7 +5263,7 @@
         <v>11</v>
       </c>
       <c r="E146" s="21">
-        <f>D146/71329</f>
+        <f t="shared" si="2"/>
         <v>1.5421497567609247E-4</v>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
         <v>11</v>
       </c>
       <c r="E147" s="21">
-        <f>D147/71329</f>
+        <f t="shared" si="2"/>
         <v>1.5421497567609247E-4</v>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
         <v>11</v>
       </c>
       <c r="E148" s="21">
-        <f>D148/71329</f>
+        <f t="shared" si="2"/>
         <v>1.5421497567609247E-4</v>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
         <v>10</v>
       </c>
       <c r="E149" s="21">
-        <f>D149/71329</f>
+        <f t="shared" si="2"/>
         <v>1.4019543243281134E-4</v>
       </c>
     </row>
@@ -5343,7 +5343,7 @@
         <v>10</v>
       </c>
       <c r="E150" s="21">
-        <f>D150/71329</f>
+        <f t="shared" si="2"/>
         <v>1.4019543243281134E-4</v>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
         <v>10</v>
       </c>
       <c r="E151" s="21">
-        <f>D151/71329</f>
+        <f t="shared" si="2"/>
         <v>1.4019543243281134E-4</v>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
         <v>10</v>
       </c>
       <c r="E152" s="21">
-        <f>D152/71329</f>
+        <f t="shared" si="2"/>
         <v>1.4019543243281134E-4</v>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
         <v>9</v>
       </c>
       <c r="E153" s="21">
-        <f>D153/71329</f>
+        <f t="shared" si="2"/>
         <v>1.2617588918953021E-4</v>
       </c>
     </row>
@@ -5423,7 +5423,7 @@
         <v>9</v>
       </c>
       <c r="E154" s="21">
-        <f>D154/71329</f>
+        <f t="shared" si="2"/>
         <v>1.2617588918953021E-4</v>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
         <v>9</v>
       </c>
       <c r="E155" s="21">
-        <f>D155/71329</f>
+        <f t="shared" si="2"/>
         <v>1.2617588918953021E-4</v>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
         <v>9</v>
       </c>
       <c r="E156" s="21">
-        <f>D156/71329</f>
+        <f t="shared" si="2"/>
         <v>1.2617588918953021E-4</v>
       </c>
     </row>
@@ -5483,7 +5483,7 @@
         <v>9</v>
       </c>
       <c r="E157" s="21">
-        <f>D157/71329</f>
+        <f t="shared" si="2"/>
         <v>1.2617588918953021E-4</v>
       </c>
     </row>
@@ -5503,7 +5503,7 @@
         <v>9</v>
       </c>
       <c r="E158" s="21">
-        <f>D158/71329</f>
+        <f t="shared" si="2"/>
         <v>1.2617588918953021E-4</v>
       </c>
     </row>
@@ -5523,7 +5523,7 @@
         <v>8</v>
       </c>
       <c r="E159" s="21">
-        <f>D159/71329</f>
+        <f t="shared" si="2"/>
         <v>1.1215634594624907E-4</v>
       </c>
     </row>
@@ -5543,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="E160" s="21">
-        <f>D160/71329</f>
+        <f t="shared" si="2"/>
         <v>1.1215634594624907E-4</v>
       </c>
     </row>
@@ -5563,7 +5563,7 @@
         <v>8</v>
       </c>
       <c r="E161" s="21">
-        <f>D161/71329</f>
+        <f t="shared" si="2"/>
         <v>1.1215634594624907E-4</v>
       </c>
     </row>
@@ -5583,7 +5583,7 @@
         <v>8</v>
       </c>
       <c r="E162" s="21">
-        <f>D162/71329</f>
+        <f t="shared" si="2"/>
         <v>1.1215634594624907E-4</v>
       </c>
     </row>
@@ -5603,7 +5603,7 @@
         <v>8</v>
       </c>
       <c r="E163" s="21">
-        <f>D163/71329</f>
+        <f t="shared" si="2"/>
         <v>1.1215634594624907E-4</v>
       </c>
     </row>
@@ -5623,7 +5623,7 @@
         <v>7</v>
       </c>
       <c r="E164" s="21">
-        <f>D164/71329</f>
+        <f t="shared" si="2"/>
         <v>9.8136802702967934E-5</v>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
         <v>7</v>
       </c>
       <c r="E165" s="21">
-        <f>D165/71329</f>
+        <f t="shared" si="2"/>
         <v>9.8136802702967934E-5</v>
       </c>
     </row>
@@ -5663,7 +5663,7 @@
         <v>7</v>
       </c>
       <c r="E166" s="21">
-        <f>D166/71329</f>
+        <f t="shared" si="2"/>
         <v>9.8136802702967934E-5</v>
       </c>
     </row>
@@ -5683,7 +5683,7 @@
         <v>7</v>
       </c>
       <c r="E167" s="21">
-        <f>D167/71329</f>
+        <f t="shared" si="2"/>
         <v>9.8136802702967934E-5</v>
       </c>
     </row>
@@ -5703,7 +5703,7 @@
         <v>7</v>
       </c>
       <c r="E168" s="21">
-        <f>D168/71329</f>
+        <f t="shared" si="2"/>
         <v>9.8136802702967934E-5</v>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
         <v>7</v>
       </c>
       <c r="E169" s="21">
-        <f>D169/71329</f>
+        <f t="shared" si="2"/>
         <v>9.8136802702967934E-5</v>
       </c>
     </row>
@@ -5743,7 +5743,7 @@
         <v>7</v>
       </c>
       <c r="E170" s="21">
-        <f>D170/71329</f>
+        <f t="shared" si="2"/>
         <v>9.8136802702967934E-5</v>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
         <v>7</v>
       </c>
       <c r="E171" s="21">
-        <f>D171/71329</f>
+        <f t="shared" si="2"/>
         <v>9.8136802702967934E-5</v>
       </c>
     </row>
@@ -5783,7 +5783,7 @@
         <v>7</v>
       </c>
       <c r="E172" s="21">
-        <f>D172/71329</f>
+        <f t="shared" si="2"/>
         <v>9.8136802702967934E-5</v>
       </c>
     </row>
@@ -5803,7 +5803,7 @@
         <v>7</v>
       </c>
       <c r="E173" s="21">
-        <f>D173/71329</f>
+        <f t="shared" si="2"/>
         <v>9.8136802702967934E-5</v>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
         <v>7</v>
       </c>
       <c r="E174" s="21">
-        <f>D174/71329</f>
+        <f t="shared" si="2"/>
         <v>9.8136802702967934E-5</v>
       </c>
     </row>
@@ -5843,7 +5843,7 @@
         <v>6</v>
       </c>
       <c r="E175" s="21">
-        <f>D175/71329</f>
+        <f t="shared" si="2"/>
         <v>8.4117259459686803E-5</v>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
         <v>6</v>
       </c>
       <c r="E176" s="21">
-        <f>D176/71329</f>
+        <f t="shared" si="2"/>
         <v>8.4117259459686803E-5</v>
       </c>
     </row>
@@ -5883,7 +5883,7 @@
         <v>6</v>
       </c>
       <c r="E177" s="21">
-        <f>D177/71329</f>
+        <f t="shared" si="2"/>
         <v>8.4117259459686803E-5</v>
       </c>
     </row>
@@ -5903,7 +5903,7 @@
         <v>6</v>
       </c>
       <c r="E178" s="21">
-        <f>D178/71329</f>
+        <f t="shared" si="2"/>
         <v>8.4117259459686803E-5</v>
       </c>
     </row>
@@ -5923,7 +5923,7 @@
         <v>6</v>
       </c>
       <c r="E179" s="21">
-        <f>D179/71329</f>
+        <f t="shared" si="2"/>
         <v>8.4117259459686803E-5</v>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
         <v>6</v>
       </c>
       <c r="E180" s="21">
-        <f>D180/71329</f>
+        <f t="shared" si="2"/>
         <v>8.4117259459686803E-5</v>
       </c>
     </row>
@@ -5963,7 +5963,7 @@
         <v>5</v>
       </c>
       <c r="E181" s="21">
-        <f>D181/71329</f>
+        <f t="shared" si="2"/>
         <v>7.0097716216405671E-5</v>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
         <v>5</v>
       </c>
       <c r="E182" s="21">
-        <f>D182/71329</f>
+        <f t="shared" si="2"/>
         <v>7.0097716216405671E-5</v>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
         <v>5</v>
       </c>
       <c r="E183" s="21">
-        <f>D183/71329</f>
+        <f t="shared" si="2"/>
         <v>7.0097716216405671E-5</v>
       </c>
     </row>
@@ -6023,7 +6023,7 @@
         <v>5</v>
       </c>
       <c r="E184" s="21">
-        <f>D184/71329</f>
+        <f t="shared" si="2"/>
         <v>7.0097716216405671E-5</v>
       </c>
     </row>
@@ -6043,7 +6043,7 @@
         <v>5</v>
       </c>
       <c r="E185" s="21">
-        <f>D185/71329</f>
+        <f t="shared" si="2"/>
         <v>7.0097716216405671E-5</v>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
         <v>5</v>
       </c>
       <c r="E186" s="21">
-        <f>D186/71329</f>
+        <f t="shared" si="2"/>
         <v>7.0097716216405671E-5</v>
       </c>
     </row>
@@ -6083,7 +6083,7 @@
         <v>5</v>
       </c>
       <c r="E187" s="21">
-        <f>D187/71329</f>
+        <f t="shared" si="2"/>
         <v>7.0097716216405671E-5</v>
       </c>
     </row>
@@ -6103,7 +6103,7 @@
         <v>5</v>
       </c>
       <c r="E188" s="21">
-        <f>D188/71329</f>
+        <f t="shared" si="2"/>
         <v>7.0097716216405671E-5</v>
       </c>
     </row>
@@ -6123,7 +6123,7 @@
         <v>4</v>
       </c>
       <c r="E189" s="21">
-        <f>D189/71329</f>
+        <f t="shared" si="2"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6143,7 +6143,7 @@
         <v>4</v>
       </c>
       <c r="E190" s="21">
-        <f>D190/71329</f>
+        <f t="shared" si="2"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
         <v>4</v>
       </c>
       <c r="E191" s="21">
-        <f>D191/71329</f>
+        <f t="shared" si="2"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6183,7 +6183,7 @@
         <v>4</v>
       </c>
       <c r="E192" s="21">
-        <f>D192/71329</f>
+        <f t="shared" si="2"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
         <v>4</v>
       </c>
       <c r="E193" s="21">
-        <f>D193/71329</f>
+        <f t="shared" si="2"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
         <v>4</v>
       </c>
       <c r="E194" s="21">
-        <f>D194/71329</f>
+        <f t="shared" ref="E194:E257" si="3">D194/71329</f>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
         <v>4</v>
       </c>
       <c r="E195" s="21">
-        <f>D195/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6263,7 +6263,7 @@
         <v>4</v>
       </c>
       <c r="E196" s="21">
-        <f>D196/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
         <v>4</v>
       </c>
       <c r="E197" s="21">
-        <f>D197/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6303,7 +6303,7 @@
         <v>4</v>
       </c>
       <c r="E198" s="21">
-        <f>D198/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6323,7 +6323,7 @@
         <v>4</v>
       </c>
       <c r="E199" s="21">
-        <f>D199/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6343,7 +6343,7 @@
         <v>4</v>
       </c>
       <c r="E200" s="21">
-        <f>D200/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6363,7 +6363,7 @@
         <v>4</v>
       </c>
       <c r="E201" s="21">
-        <f>D201/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
         <v>4</v>
       </c>
       <c r="E202" s="21">
-        <f>D202/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6403,7 +6403,7 @@
         <v>4</v>
       </c>
       <c r="E203" s="21">
-        <f>D203/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
         <v>4</v>
       </c>
       <c r="E204" s="21">
-        <f>D204/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6443,7 +6443,7 @@
         <v>4</v>
       </c>
       <c r="E205" s="21">
-        <f>D205/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6463,7 +6463,7 @@
         <v>4</v>
       </c>
       <c r="E206" s="21">
-        <f>D206/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6483,7 +6483,7 @@
         <v>4</v>
       </c>
       <c r="E207" s="21">
-        <f>D207/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
         <v>4</v>
       </c>
       <c r="E208" s="21">
-        <f>D208/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
         <v>4</v>
       </c>
       <c r="E209" s="21">
-        <f>D209/71329</f>
+        <f t="shared" si="3"/>
         <v>5.6078172973124533E-5</v>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
         <v>3</v>
       </c>
       <c r="E210" s="21">
-        <f>D210/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
         <v>3</v>
       </c>
       <c r="E211" s="21">
-        <f>D211/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
         <v>3</v>
       </c>
       <c r="E212" s="21">
-        <f>D212/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
         <v>3</v>
       </c>
       <c r="E213" s="21">
-        <f>D213/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6623,7 +6623,7 @@
         <v>3</v>
       </c>
       <c r="E214" s="21">
-        <f>D214/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
         <v>3</v>
       </c>
       <c r="E215" s="21">
-        <f>D215/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6663,7 +6663,7 @@
         <v>3</v>
       </c>
       <c r="E216" s="21">
-        <f>D216/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6683,7 +6683,7 @@
         <v>3</v>
       </c>
       <c r="E217" s="21">
-        <f>D217/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
         <v>3</v>
       </c>
       <c r="E218" s="21">
-        <f>D218/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6723,7 +6723,7 @@
         <v>3</v>
       </c>
       <c r="E219" s="21">
-        <f>D219/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
         <v>3</v>
       </c>
       <c r="E220" s="21">
-        <f>D220/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6763,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="E221" s="21">
-        <f>D221/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
         <v>3</v>
       </c>
       <c r="E222" s="21">
-        <f>D222/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6803,7 +6803,7 @@
         <v>3</v>
       </c>
       <c r="E223" s="21">
-        <f>D223/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6823,7 +6823,7 @@
         <v>3</v>
       </c>
       <c r="E224" s="21">
-        <f>D224/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
         <v>3</v>
       </c>
       <c r="E225" s="21">
-        <f>D225/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
         <v>3</v>
       </c>
       <c r="E226" s="21">
-        <f>D226/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6883,7 +6883,7 @@
         <v>3</v>
       </c>
       <c r="E227" s="21">
-        <f>D227/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6903,7 +6903,7 @@
         <v>3</v>
       </c>
       <c r="E228" s="21">
-        <f>D228/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6923,7 +6923,7 @@
         <v>3</v>
       </c>
       <c r="E229" s="21">
-        <f>D229/71329</f>
+        <f t="shared" si="3"/>
         <v>4.2058629729843401E-5</v>
       </c>
     </row>
@@ -6943,7 +6943,7 @@
         <v>2</v>
       </c>
       <c r="E230" s="21">
-        <f>D230/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -6963,7 +6963,7 @@
         <v>2</v>
       </c>
       <c r="E231" s="21">
-        <f>D231/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -6983,7 +6983,7 @@
         <v>2</v>
       </c>
       <c r="E232" s="21">
-        <f>D232/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7003,7 +7003,7 @@
         <v>2</v>
       </c>
       <c r="E233" s="21">
-        <f>D233/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7023,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="E234" s="21">
-        <f>D234/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
         <v>2</v>
       </c>
       <c r="E235" s="21">
-        <f>D235/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7063,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="E236" s="21">
-        <f>D236/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
         <v>2</v>
       </c>
       <c r="E237" s="21">
-        <f>D237/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7103,7 +7103,7 @@
         <v>2</v>
       </c>
       <c r="E238" s="21">
-        <f>D238/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7123,7 +7123,7 @@
         <v>2</v>
       </c>
       <c r="E239" s="21">
-        <f>D239/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7143,7 +7143,7 @@
         <v>2</v>
       </c>
       <c r="E240" s="21">
-        <f>D240/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7163,7 +7163,7 @@
         <v>2</v>
       </c>
       <c r="E241" s="21">
-        <f>D241/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
         <v>2</v>
       </c>
       <c r="E242" s="21">
-        <f>D242/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7203,7 +7203,7 @@
         <v>2</v>
       </c>
       <c r="E243" s="21">
-        <f>D243/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7223,7 +7223,7 @@
         <v>2</v>
       </c>
       <c r="E244" s="21">
-        <f>D244/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7243,7 +7243,7 @@
         <v>2</v>
       </c>
       <c r="E245" s="21">
-        <f>D245/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7263,7 +7263,7 @@
         <v>2</v>
       </c>
       <c r="E246" s="21">
-        <f>D246/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7283,7 +7283,7 @@
         <v>2</v>
       </c>
       <c r="E247" s="21">
-        <f>D247/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7303,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="E248" s="21">
-        <f>D248/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
         <v>2</v>
       </c>
       <c r="E249" s="21">
-        <f>D249/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7343,7 +7343,7 @@
         <v>2</v>
       </c>
       <c r="E250" s="21">
-        <f>D250/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7363,7 +7363,7 @@
         <v>2</v>
       </c>
       <c r="E251" s="21">
-        <f>D251/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7383,7 +7383,7 @@
         <v>2</v>
       </c>
       <c r="E252" s="21">
-        <f>D252/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
         <v>2</v>
       </c>
       <c r="E253" s="21">
-        <f>D253/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
         <v>2</v>
       </c>
       <c r="E254" s="21">
-        <f>D254/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
         <v>2</v>
       </c>
       <c r="E255" s="21">
-        <f>D255/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7463,7 +7463,7 @@
         <v>2</v>
       </c>
       <c r="E256" s="21">
-        <f>D256/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7483,7 +7483,7 @@
         <v>2</v>
       </c>
       <c r="E257" s="21">
-        <f>D257/71329</f>
+        <f t="shared" si="3"/>
         <v>2.8039086486562266E-5</v>
       </c>
     </row>
@@ -7503,7 +7503,7 @@
         <v>1</v>
       </c>
       <c r="E258" s="21">
-        <f>D258/71329</f>
+        <f t="shared" ref="E258:E310" si="4">D258/71329</f>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7523,7 +7523,7 @@
         <v>1</v>
       </c>
       <c r="E259" s="21">
-        <f>D259/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7543,7 +7543,7 @@
         <v>1</v>
       </c>
       <c r="E260" s="21">
-        <f>D260/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E261" s="21">
-        <f>D261/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="E262" s="21">
-        <f>D262/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7603,7 +7603,7 @@
         <v>1</v>
       </c>
       <c r="E263" s="21">
-        <f>D263/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7623,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="E264" s="21">
-        <f>D264/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7643,7 +7643,7 @@
         <v>1</v>
       </c>
       <c r="E265" s="21">
-        <f>D265/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7663,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="E266" s="21">
-        <f>D266/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7683,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="E267" s="21">
-        <f>D267/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7703,7 +7703,7 @@
         <v>1</v>
       </c>
       <c r="E268" s="21">
-        <f>D268/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="E269" s="21">
-        <f>D269/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
         <v>1</v>
       </c>
       <c r="E270" s="21">
-        <f>D270/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="E271" s="21">
-        <f>D271/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7783,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="E272" s="21">
-        <f>D272/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7803,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="E273" s="21">
-        <f>D273/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7823,7 +7823,7 @@
         <v>1</v>
       </c>
       <c r="E274" s="21">
-        <f>D274/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="E275" s="21">
-        <f>D275/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7863,7 +7863,7 @@
         <v>1</v>
       </c>
       <c r="E276" s="21">
-        <f>D276/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7883,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="E277" s="21">
-        <f>D277/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E278" s="21">
-        <f>D278/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
         <v>1</v>
       </c>
       <c r="E279" s="21">
-        <f>D279/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7943,7 +7943,7 @@
         <v>1</v>
       </c>
       <c r="E280" s="21">
-        <f>D280/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
         <v>1</v>
       </c>
       <c r="E281" s="21">
-        <f>D281/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="E282" s="21">
-        <f>D282/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="E283" s="21">
-        <f>D283/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8023,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="E284" s="21">
-        <f>D284/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8043,7 +8043,7 @@
         <v>1</v>
       </c>
       <c r="E285" s="21">
-        <f>D285/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="E286" s="21">
-        <f>D286/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8083,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="E287" s="21">
-        <f>D287/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="E288" s="21">
-        <f>D288/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8123,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="E289" s="21">
-        <f>D289/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8143,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="E290" s="21">
-        <f>D290/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8163,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="E291" s="21">
-        <f>D291/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8183,7 +8183,7 @@
         <v>1</v>
       </c>
       <c r="E292" s="21">
-        <f>D292/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8203,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="E293" s="21">
-        <f>D293/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8223,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="E294" s="21">
-        <f>D294/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E295" s="21">
-        <f>D295/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8263,7 +8263,7 @@
         <v>1</v>
       </c>
       <c r="E296" s="21">
-        <f>D296/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8283,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="E297" s="21">
-        <f>D297/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8303,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="E298" s="21">
-        <f>D298/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8323,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="E299" s="21">
-        <f>D299/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8343,7 +8343,7 @@
         <v>1</v>
       </c>
       <c r="E300" s="21">
-        <f>D300/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8363,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="E301" s="21">
-        <f>D301/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8383,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="E302" s="21">
-        <f>D302/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
         <v>1</v>
       </c>
       <c r="E303" s="21">
-        <f>D303/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8423,7 +8423,7 @@
         <v>1</v>
       </c>
       <c r="E304" s="21">
-        <f>D304/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8443,7 +8443,7 @@
         <v>1</v>
       </c>
       <c r="E305" s="21">
-        <f>D305/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8463,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="E306" s="21">
-        <f>D306/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8483,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="E307" s="21">
-        <f>D307/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8503,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="E308" s="21">
-        <f>D308/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8523,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="E309" s="21">
-        <f>D309/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8543,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="E310" s="21">
-        <f>D310/71329</f>
+        <f t="shared" si="4"/>
         <v>1.4019543243281133E-5</v>
       </c>
     </row>
@@ -8560,9 +8560,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8591,7 +8594,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -8607,14 +8610,14 @@
         <v>9327</v>
       </c>
       <c r="E2" s="21">
-        <f>D2/75246</f>
+        <f t="shared" ref="E2:E65" si="0">D2/75246</f>
         <v>0.1239534327406108</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -8630,11 +8633,11 @@
         <v>9322</v>
       </c>
       <c r="E3" s="21">
-        <f>D3/75246</f>
+        <f t="shared" si="0"/>
         <v>0.12388698402572894</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
@@ -8650,11 +8653,11 @@
         <v>6085</v>
       </c>
       <c r="E4" s="21">
-        <f>D4/75246</f>
+        <f t="shared" si="0"/>
         <v>8.0868086011216547E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -8670,14 +8673,14 @@
         <v>4794</v>
       </c>
       <c r="E5" s="21">
-        <f>D5/75246</f>
+        <f t="shared" si="0"/>
         <v>6.3711027828721789E-2</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="22"/>
     </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -8693,11 +8696,11 @@
         <v>4026</v>
       </c>
       <c r="E6" s="21">
-        <f>D6/75246</f>
+        <f t="shared" si="0"/>
         <v>5.3504505222868988E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
@@ -8713,14 +8716,14 @@
         <v>3874</v>
       </c>
       <c r="E7" s="21">
-        <f>D7/75246</f>
+        <f t="shared" si="0"/>
         <v>5.1484464290460621E-2</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>404</v>
       </c>
@@ -8736,14 +8739,14 @@
         <v>3383</v>
       </c>
       <c r="E8" s="21">
-        <f>D8/75246</f>
+        <f t="shared" si="0"/>
         <v>4.4959200489062538E-2</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -8759,11 +8762,11 @@
         <v>2502</v>
       </c>
       <c r="E9" s="21">
-        <f>D9/75246</f>
+        <f t="shared" si="0"/>
         <v>3.3250936926879832E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>68</v>
       </c>
@@ -8779,7 +8782,7 @@
         <v>2449</v>
       </c>
       <c r="E10" s="21">
-        <f>D10/75246</f>
+        <f t="shared" si="0"/>
         <v>3.2546580549132183E-2</v>
       </c>
     </row>
@@ -8799,11 +8802,11 @@
         <v>2181</v>
       </c>
       <c r="E11" s="21">
-        <f>D11/75246</f>
+        <f t="shared" si="0"/>
         <v>2.8984929431464794E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -8819,11 +8822,11 @@
         <v>2168</v>
       </c>
       <c r="E12" s="21">
-        <f>D12/75246</f>
+        <f t="shared" si="0"/>
         <v>2.8812162772771974E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -8839,11 +8842,11 @@
         <v>2159</v>
       </c>
       <c r="E13" s="21">
-        <f>D13/75246</f>
+        <f t="shared" si="0"/>
         <v>2.8692555085984638E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -8859,11 +8862,11 @@
         <v>2100</v>
       </c>
       <c r="E14" s="21">
-        <f>D14/75246</f>
+        <f t="shared" si="0"/>
         <v>2.7908460250378759E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>400</v>
       </c>
@@ -8879,11 +8882,11 @@
         <v>1777</v>
       </c>
       <c r="E15" s="21">
-        <f>D15/75246</f>
+        <f t="shared" si="0"/>
         <v>2.3615873269010976E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -8899,7 +8902,7 @@
         <v>1253</v>
       </c>
       <c r="E16" s="21">
-        <f>D16/75246</f>
+        <f t="shared" si="0"/>
         <v>1.6652047949392658E-2</v>
       </c>
     </row>
@@ -8919,7 +8922,7 @@
         <v>864</v>
       </c>
       <c r="E17" s="21">
-        <f>D17/75246</f>
+        <f t="shared" si="0"/>
         <v>1.1482337931584404E-2</v>
       </c>
     </row>
@@ -8939,11 +8942,11 @@
         <v>855</v>
       </c>
       <c r="E18" s="21">
-        <f>D18/75246</f>
+        <f t="shared" si="0"/>
         <v>1.1362730244797066E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -8959,7 +8962,7 @@
         <v>799</v>
       </c>
       <c r="E19" s="21">
-        <f>D19/75246</f>
+        <f t="shared" si="0"/>
         <v>1.0618504638120299E-2</v>
       </c>
     </row>
@@ -8979,11 +8982,11 @@
         <v>792</v>
       </c>
       <c r="E20" s="21">
-        <f>D20/75246</f>
+        <f t="shared" si="0"/>
         <v>1.0525476437285703E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>406</v>
       </c>
@@ -8999,14 +9002,14 @@
         <v>671</v>
       </c>
       <c r="E21" s="21">
-        <f>D21/75246</f>
+        <f t="shared" si="0"/>
         <v>8.9174175371448325E-3</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="22"/>
     </row>
-    <row r="22" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -9022,14 +9025,14 @@
         <v>668</v>
       </c>
       <c r="E22" s="21">
-        <f>D22/75246</f>
+        <f t="shared" si="0"/>
         <v>8.8775483082157193E-3</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -9045,7 +9048,7 @@
         <v>485</v>
       </c>
       <c r="E23" s="21">
-        <f>D23/75246</f>
+        <f t="shared" si="0"/>
         <v>6.445525343539856E-3</v>
       </c>
       <c r="F23" s="3"/>
@@ -9068,14 +9071,14 @@
         <v>459</v>
       </c>
       <c r="E24" s="21">
-        <f>D24/75246</f>
+        <f t="shared" si="0"/>
         <v>6.0999920261542145E-3</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>402</v>
       </c>
@@ -9091,7 +9094,7 @@
         <v>456</v>
       </c>
       <c r="E25" s="21">
-        <f>D25/75246</f>
+        <f t="shared" si="0"/>
         <v>6.0601227972251013E-3</v>
       </c>
       <c r="F25" s="3"/>
@@ -9114,7 +9117,7 @@
         <v>423</v>
       </c>
       <c r="E26" s="21">
-        <f>D26/75246</f>
+        <f t="shared" si="0"/>
         <v>5.6215612790048641E-3</v>
       </c>
     </row>
@@ -9134,7 +9137,7 @@
         <v>400</v>
       </c>
       <c r="E27" s="21">
-        <f>D27/75246</f>
+        <f t="shared" si="0"/>
         <v>5.3158971905483349E-3</v>
       </c>
       <c r="F27" s="3"/>
@@ -9157,14 +9160,14 @@
         <v>399</v>
       </c>
       <c r="E28" s="21">
-        <f>D28/75246</f>
+        <f t="shared" si="0"/>
         <v>5.3026074475719638E-3</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
@@ -9180,7 +9183,7 @@
         <v>397</v>
       </c>
       <c r="E29" s="21">
-        <f>D29/75246</f>
+        <f t="shared" si="0"/>
         <v>5.2760279616192226E-3</v>
       </c>
       <c r="F29" s="3"/>
@@ -9203,7 +9206,7 @@
         <v>371</v>
       </c>
       <c r="E30" s="21">
-        <f>D30/75246</f>
+        <f t="shared" si="0"/>
         <v>4.9304946442335802E-3</v>
       </c>
       <c r="F30" s="3"/>
@@ -9226,11 +9229,11 @@
         <v>351</v>
       </c>
       <c r="E31" s="21">
-        <f>D31/75246</f>
+        <f t="shared" si="0"/>
         <v>4.6646997847061642E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>502</v>
       </c>
@@ -9246,7 +9249,7 @@
         <v>321</v>
       </c>
       <c r="E32" s="21">
-        <f>D32/75246</f>
+        <f t="shared" si="0"/>
         <v>4.2660074954150385E-3</v>
       </c>
       <c r="F32" s="3"/>
@@ -9269,7 +9272,7 @@
         <v>288</v>
       </c>
       <c r="E33" s="21">
-        <f>D33/75246</f>
+        <f t="shared" si="0"/>
         <v>3.8274459771948008E-3</v>
       </c>
       <c r="F33" s="3"/>
@@ -9292,7 +9295,7 @@
         <v>282</v>
       </c>
       <c r="E34" s="21">
-        <f>D34/75246</f>
+        <f t="shared" si="0"/>
         <v>3.7477075193365762E-3</v>
       </c>
       <c r="F34" s="3"/>
@@ -9315,11 +9318,11 @@
         <v>269</v>
       </c>
       <c r="E35" s="21">
-        <f>D35/75246</f>
+        <f t="shared" si="0"/>
         <v>3.574940860643755E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>445</v>
       </c>
@@ -9335,7 +9338,7 @@
         <v>251</v>
       </c>
       <c r="E36" s="21">
-        <f>D36/75246</f>
+        <f t="shared" si="0"/>
         <v>3.3357254870690803E-3</v>
       </c>
       <c r="F36" s="3"/>
@@ -9358,7 +9361,7 @@
         <v>241</v>
       </c>
       <c r="E37" s="21">
-        <f>D37/75246</f>
+        <f t="shared" si="0"/>
         <v>3.2028280573053718E-3</v>
       </c>
       <c r="F37" s="3"/>
@@ -9381,7 +9384,7 @@
         <v>235</v>
       </c>
       <c r="E38" s="21">
-        <f>D38/75246</f>
+        <f t="shared" si="0"/>
         <v>3.1230895994471468E-3</v>
       </c>
       <c r="F38" s="3"/>
@@ -9404,11 +9407,11 @@
         <v>234</v>
       </c>
       <c r="E39" s="21">
-        <f>D39/75246</f>
+        <f t="shared" si="0"/>
         <v>3.1097998564707757E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
@@ -9424,14 +9427,14 @@
         <v>209</v>
       </c>
       <c r="E40" s="21">
-        <f>D40/75246</f>
+        <f t="shared" si="0"/>
         <v>2.7775562820615048E-3</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="22"/>
     </row>
-    <row r="41" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>24</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>200</v>
       </c>
       <c r="E41" s="21">
-        <f>D41/75246</f>
+        <f t="shared" si="0"/>
         <v>2.6579485952741675E-3</v>
       </c>
       <c r="F41" s="3"/>
@@ -9470,14 +9473,14 @@
         <v>198</v>
       </c>
       <c r="E42" s="21">
-        <f>D42/75246</f>
+        <f t="shared" si="0"/>
         <v>2.6313691093214258E-3</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="22"/>
     </row>
-    <row r="43" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>463</v>
       </c>
@@ -9493,7 +9496,7 @@
         <v>198</v>
       </c>
       <c r="E43" s="21">
-        <f>D43/75246</f>
+        <f t="shared" si="0"/>
         <v>2.6313691093214258E-3</v>
       </c>
       <c r="F43" s="3"/>
@@ -9516,7 +9519,7 @@
         <v>173</v>
       </c>
       <c r="E44" s="21">
-        <f>D44/75246</f>
+        <f t="shared" si="0"/>
         <v>2.2991255349121549E-3</v>
       </c>
       <c r="F44" s="3"/>
@@ -9539,14 +9542,14 @@
         <v>157</v>
       </c>
       <c r="E45" s="21">
-        <f>D45/75246</f>
+        <f t="shared" si="0"/>
         <v>2.0864896472902214E-3</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="22"/>
     </row>
-    <row r="46" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
@@ -9562,14 +9565,14 @@
         <v>153</v>
       </c>
       <c r="E46" s="21">
-        <f>D46/75246</f>
+        <f t="shared" si="0"/>
         <v>2.033330675384738E-3</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="22"/>
     </row>
-    <row r="47" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>20</v>
       </c>
@@ -9585,14 +9588,14 @@
         <v>153</v>
       </c>
       <c r="E47" s="21">
-        <f>D47/75246</f>
+        <f t="shared" si="0"/>
         <v>2.033330675384738E-3</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="22"/>
     </row>
-    <row r="48" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>446</v>
       </c>
@@ -9608,14 +9611,14 @@
         <v>150</v>
       </c>
       <c r="E48" s="21">
-        <f>D48/75246</f>
+        <f t="shared" si="0"/>
         <v>1.9934614464556257E-3</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="22"/>
     </row>
-    <row r="49" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
@@ -9631,14 +9634,14 @@
         <v>149</v>
       </c>
       <c r="E49" s="21">
-        <f>D49/75246</f>
+        <f t="shared" si="0"/>
         <v>1.9801717034792546E-3</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="22"/>
     </row>
-    <row r="50" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>437</v>
       </c>
@@ -9654,14 +9657,14 @@
         <v>144</v>
       </c>
       <c r="E50" s="21">
-        <f>D50/75246</f>
+        <f t="shared" si="0"/>
         <v>1.9137229885974004E-3</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="22"/>
     </row>
-    <row r="51" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>417</v>
       </c>
@@ -9677,7 +9680,7 @@
         <v>139</v>
       </c>
       <c r="E51" s="21">
-        <f>D51/75246</f>
+        <f t="shared" si="0"/>
         <v>1.8472742737155464E-3</v>
       </c>
       <c r="F51" s="3"/>
@@ -9700,7 +9703,7 @@
         <v>134</v>
       </c>
       <c r="E52" s="21">
-        <f>D52/75246</f>
+        <f t="shared" si="0"/>
         <v>1.7808255588336922E-3</v>
       </c>
       <c r="F52" s="3"/>
@@ -9723,14 +9726,14 @@
         <v>129</v>
       </c>
       <c r="E53" s="21">
-        <f>D53/75246</f>
+        <f t="shared" si="0"/>
         <v>1.714376843951838E-3</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="22"/>
     </row>
-    <row r="54" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>37</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v>123</v>
       </c>
       <c r="E54" s="21">
-        <f>D54/75246</f>
+        <f t="shared" si="0"/>
         <v>1.6346383860936129E-3</v>
       </c>
       <c r="F54" s="3"/>
@@ -9769,14 +9772,14 @@
         <v>122</v>
       </c>
       <c r="E55" s="21">
-        <f>D55/75246</f>
+        <f t="shared" si="0"/>
         <v>1.6213486431172421E-3</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="22"/>
     </row>
-    <row r="56" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>17</v>
       </c>
@@ -9792,14 +9795,14 @@
         <v>119</v>
       </c>
       <c r="E56" s="21">
-        <f>D56/75246</f>
+        <f t="shared" si="0"/>
         <v>1.5814794141881295E-3</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="22"/>
     </row>
-    <row r="57" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>572</v>
       </c>
@@ -9815,14 +9818,14 @@
         <v>118</v>
       </c>
       <c r="E57" s="21">
-        <f>D57/75246</f>
+        <f t="shared" si="0"/>
         <v>1.5681896712117587E-3</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="22"/>
     </row>
-    <row r="58" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>416</v>
       </c>
@@ -9838,14 +9841,14 @@
         <v>116</v>
       </c>
       <c r="E58" s="21">
-        <f>D58/75246</f>
+        <f t="shared" si="0"/>
         <v>1.541610185259017E-3</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="22"/>
     </row>
-    <row r="59" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>441</v>
       </c>
@@ -9861,14 +9864,14 @@
         <v>108</v>
       </c>
       <c r="E59" s="21">
-        <f>D59/75246</f>
+        <f t="shared" si="0"/>
         <v>1.4352922414480505E-3</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="22"/>
     </row>
-    <row r="60" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>390</v>
       </c>
@@ -9884,7 +9887,7 @@
         <v>108</v>
       </c>
       <c r="E60" s="21">
-        <f>D60/75246</f>
+        <f t="shared" si="0"/>
         <v>1.4352922414480505E-3</v>
       </c>
       <c r="F60" s="3"/>
@@ -9907,7 +9910,7 @@
         <v>108</v>
       </c>
       <c r="E61" s="21">
-        <f>D61/75246</f>
+        <f t="shared" si="0"/>
         <v>1.4352922414480505E-3</v>
       </c>
       <c r="F61" s="3"/>
@@ -9930,14 +9933,14 @@
         <v>101</v>
       </c>
       <c r="E62" s="21">
-        <f>D62/75246</f>
+        <f t="shared" si="0"/>
         <v>1.3422640406134546E-3</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="22"/>
     </row>
-    <row r="63" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>52</v>
       </c>
@@ -9953,14 +9956,14 @@
         <v>91</v>
       </c>
       <c r="E63" s="21">
-        <f>D63/75246</f>
+        <f t="shared" si="0"/>
         <v>1.2093666108497461E-3</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="22"/>
     </row>
-    <row r="64" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>432</v>
       </c>
@@ -9976,7 +9979,7 @@
         <v>81</v>
       </c>
       <c r="E64" s="21">
-        <f>D64/75246</f>
+        <f t="shared" si="0"/>
         <v>1.0764691810860377E-3</v>
       </c>
       <c r="F64" s="3"/>
@@ -9999,14 +10002,14 @@
         <v>81</v>
       </c>
       <c r="E65" s="21">
-        <f>D65/75246</f>
+        <f t="shared" si="0"/>
         <v>1.0764691810860377E-3</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="22"/>
     </row>
-    <row r="66" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>22</v>
       </c>
@@ -10022,7 +10025,7 @@
         <v>78</v>
       </c>
       <c r="E66" s="21">
-        <f>D66/75246</f>
+        <f t="shared" ref="E66:E129" si="1">D66/75246</f>
         <v>1.0365999521569254E-3</v>
       </c>
       <c r="F66" s="3"/>
@@ -10045,14 +10048,14 @@
         <v>77</v>
       </c>
       <c r="E67" s="21">
-        <f>D67/75246</f>
+        <f t="shared" si="1"/>
         <v>1.0233102091805545E-3</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="22"/>
     </row>
-    <row r="68" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>394</v>
       </c>
@@ -10068,14 +10071,14 @@
         <v>76</v>
       </c>
       <c r="E68" s="21">
-        <f>D68/75246</f>
+        <f t="shared" si="1"/>
         <v>1.0100204662041837E-3</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="22"/>
     </row>
-    <row r="69" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>573</v>
       </c>
@@ -10091,14 +10094,14 @@
         <v>73</v>
       </c>
       <c r="E69" s="21">
-        <f>D69/75246</f>
+        <f t="shared" si="1"/>
         <v>9.7015123727507105E-4</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="22"/>
     </row>
-    <row r="70" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>419</v>
       </c>
@@ -10114,7 +10117,7 @@
         <v>69</v>
       </c>
       <c r="E70" s="21">
-        <f>D70/75246</f>
+        <f t="shared" si="1"/>
         <v>9.1699226536958779E-4</v>
       </c>
       <c r="F70" s="3"/>
@@ -10137,7 +10140,7 @@
         <v>67</v>
       </c>
       <c r="E71" s="21">
-        <f>D71/75246</f>
+        <f t="shared" si="1"/>
         <v>8.904127794168461E-4</v>
       </c>
       <c r="F71" s="3"/>
@@ -10160,7 +10163,7 @@
         <v>66</v>
       </c>
       <c r="E72" s="21">
-        <f>D72/75246</f>
+        <f t="shared" si="1"/>
         <v>8.7712303644047526E-4</v>
       </c>
       <c r="F72" s="3"/>
@@ -10183,7 +10186,7 @@
         <v>66</v>
       </c>
       <c r="E73" s="21">
-        <f>D73/75246</f>
+        <f t="shared" si="1"/>
         <v>8.7712303644047526E-4</v>
       </c>
       <c r="F73" s="3"/>
@@ -10206,7 +10209,7 @@
         <v>66</v>
       </c>
       <c r="E74" s="21">
-        <f>D74/75246</f>
+        <f t="shared" si="1"/>
         <v>8.7712303644047526E-4</v>
       </c>
       <c r="F74" s="3"/>
@@ -10229,7 +10232,7 @@
         <v>64</v>
       </c>
       <c r="E75" s="21">
-        <f>D75/75246</f>
+        <f t="shared" si="1"/>
         <v>8.5054355048773357E-4</v>
       </c>
       <c r="F75" s="3"/>
@@ -10252,14 +10255,14 @@
         <v>64</v>
       </c>
       <c r="E76" s="21">
-        <f>D76/75246</f>
+        <f t="shared" si="1"/>
         <v>8.5054355048773357E-4</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="22"/>
     </row>
-    <row r="77" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>428</v>
       </c>
@@ -10275,14 +10278,14 @@
         <v>62</v>
       </c>
       <c r="E77" s="21">
-        <f>D77/75246</f>
+        <f t="shared" si="1"/>
         <v>8.2396406453499188E-4</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="22"/>
     </row>
-    <row r="78" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>415</v>
       </c>
@@ -10298,14 +10301,14 @@
         <v>57</v>
       </c>
       <c r="E78" s="21">
-        <f>D78/75246</f>
+        <f t="shared" si="1"/>
         <v>7.5751534965313766E-4</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="22"/>
     </row>
-    <row r="79" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>412</v>
       </c>
@@ -10321,7 +10324,7 @@
         <v>56</v>
       </c>
       <c r="E79" s="21">
-        <f>D79/75246</f>
+        <f t="shared" si="1"/>
         <v>7.4422560667676682E-4</v>
       </c>
       <c r="F79" s="3"/>
@@ -10344,7 +10347,7 @@
         <v>55</v>
       </c>
       <c r="E80" s="21">
-        <f>D80/75246</f>
+        <f t="shared" si="1"/>
         <v>7.3093586370039608E-4</v>
       </c>
       <c r="F80" s="3"/>
@@ -10367,7 +10370,7 @@
         <v>52</v>
       </c>
       <c r="E81" s="21">
-        <f>D81/75246</f>
+        <f t="shared" si="1"/>
         <v>6.9106663477128355E-4</v>
       </c>
       <c r="F81" s="3"/>
@@ -10390,7 +10393,7 @@
         <v>51</v>
       </c>
       <c r="E82" s="21">
-        <f>D82/75246</f>
+        <f t="shared" si="1"/>
         <v>6.7777689179491271E-4</v>
       </c>
       <c r="F82" s="3"/>
@@ -10413,7 +10416,7 @@
         <v>50</v>
       </c>
       <c r="E83" s="21">
-        <f>D83/75246</f>
+        <f t="shared" si="1"/>
         <v>6.6448714881854186E-4</v>
       </c>
       <c r="F83" s="3"/>
@@ -10436,7 +10439,7 @@
         <v>50</v>
       </c>
       <c r="E84" s="21">
-        <f>D84/75246</f>
+        <f t="shared" si="1"/>
         <v>6.6448714881854186E-4</v>
       </c>
       <c r="F84" s="3"/>
@@ -10459,7 +10462,7 @@
         <v>47</v>
       </c>
       <c r="E85" s="21">
-        <f>D85/75246</f>
+        <f t="shared" si="1"/>
         <v>6.2461791988942933E-4</v>
       </c>
       <c r="F85" s="3"/>
@@ -10482,7 +10485,7 @@
         <v>47</v>
       </c>
       <c r="E86" s="21">
-        <f>D86/75246</f>
+        <f t="shared" si="1"/>
         <v>6.2461791988942933E-4</v>
       </c>
       <c r="F86" s="3"/>
@@ -10505,14 +10508,14 @@
         <v>47</v>
       </c>
       <c r="E87" s="21">
-        <f>D87/75246</f>
+        <f t="shared" si="1"/>
         <v>6.2461791988942933E-4</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="22"/>
     </row>
-    <row r="88" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>464</v>
       </c>
@@ -10528,14 +10531,14 @@
         <v>47</v>
       </c>
       <c r="E88" s="21">
-        <f>D88/75246</f>
+        <f t="shared" si="1"/>
         <v>6.2461791988942933E-4</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="22"/>
     </row>
-    <row r="89" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>447</v>
       </c>
@@ -10551,14 +10554,14 @@
         <v>46</v>
       </c>
       <c r="E89" s="21">
-        <f>D89/75246</f>
+        <f t="shared" si="1"/>
         <v>6.1132817691305849E-4</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="22"/>
     </row>
-    <row r="90" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>466</v>
       </c>
@@ -10574,14 +10577,14 @@
         <v>46</v>
       </c>
       <c r="E90" s="21">
-        <f>D90/75246</f>
+        <f t="shared" si="1"/>
         <v>6.1132817691305849E-4</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="22"/>
     </row>
-    <row r="91" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>26</v>
       </c>
@@ -10597,7 +10600,7 @@
         <v>45</v>
       </c>
       <c r="E91" s="21">
-        <f>D91/75246</f>
+        <f t="shared" si="1"/>
         <v>5.9803843393668764E-4</v>
       </c>
       <c r="F91" s="3"/>
@@ -10620,7 +10623,7 @@
         <v>43</v>
       </c>
       <c r="E92" s="21">
-        <f>D92/75246</f>
+        <f t="shared" si="1"/>
         <v>5.7145894798394596E-4</v>
       </c>
       <c r="F92" s="3"/>
@@ -10643,7 +10646,7 @@
         <v>43</v>
       </c>
       <c r="E93" s="21">
-        <f>D93/75246</f>
+        <f t="shared" si="1"/>
         <v>5.7145894798394596E-4</v>
       </c>
       <c r="F93" s="3"/>
@@ -10666,7 +10669,7 @@
         <v>43</v>
       </c>
       <c r="E94" s="21">
-        <f>D94/75246</f>
+        <f t="shared" si="1"/>
         <v>5.7145894798394596E-4</v>
       </c>
       <c r="F94" s="3"/>
@@ -10689,7 +10692,7 @@
         <v>43</v>
       </c>
       <c r="E95" s="21">
-        <f>D95/75246</f>
+        <f t="shared" si="1"/>
         <v>5.7145894798394596E-4</v>
       </c>
       <c r="F95" s="3"/>
@@ -10712,7 +10715,7 @@
         <v>42</v>
       </c>
       <c r="E96" s="21">
-        <f>D96/75246</f>
+        <f t="shared" si="1"/>
         <v>5.5816920500757511E-4</v>
       </c>
       <c r="F96" s="3"/>
@@ -10735,7 +10738,7 @@
         <v>41</v>
       </c>
       <c r="E97" s="21">
-        <f>D97/75246</f>
+        <f t="shared" si="1"/>
         <v>5.4487946203120427E-4</v>
       </c>
       <c r="F97" s="3"/>
@@ -10758,7 +10761,7 @@
         <v>40</v>
       </c>
       <c r="E98" s="21">
-        <f>D98/75246</f>
+        <f t="shared" si="1"/>
         <v>5.3158971905483343E-4</v>
       </c>
       <c r="F98" s="3"/>
@@ -10781,7 +10784,7 @@
         <v>40</v>
       </c>
       <c r="E99" s="21">
-        <f>D99/75246</f>
+        <f t="shared" si="1"/>
         <v>5.3158971905483343E-4</v>
       </c>
       <c r="F99" s="3"/>
@@ -10804,7 +10807,7 @@
         <v>39</v>
       </c>
       <c r="E100" s="21">
-        <f>D100/75246</f>
+        <f t="shared" si="1"/>
         <v>5.1829997607846269E-4</v>
       </c>
       <c r="F100" s="3"/>
@@ -10827,14 +10830,14 @@
         <v>39</v>
       </c>
       <c r="E101" s="21">
-        <f>D101/75246</f>
+        <f t="shared" si="1"/>
         <v>5.1829997607846269E-4</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="22"/>
     </row>
-    <row r="102" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>563</v>
       </c>
@@ -10850,7 +10853,7 @@
         <v>37</v>
       </c>
       <c r="E102" s="21">
-        <f>D102/75246</f>
+        <f t="shared" si="1"/>
         <v>4.91720490125721E-4</v>
       </c>
       <c r="F102" s="3"/>
@@ -10873,7 +10876,7 @@
         <v>34</v>
       </c>
       <c r="E103" s="21">
-        <f>D103/75246</f>
+        <f t="shared" si="1"/>
         <v>4.5185126119660847E-4</v>
       </c>
       <c r="F103" s="3"/>
@@ -10896,14 +10899,14 @@
         <v>34</v>
       </c>
       <c r="E104" s="21">
-        <f>D104/75246</f>
+        <f t="shared" si="1"/>
         <v>4.5185126119660847E-4</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="22"/>
     </row>
-    <row r="105" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>584</v>
       </c>
@@ -10919,7 +10922,7 @@
         <v>34</v>
       </c>
       <c r="E105" s="21">
-        <f>D105/75246</f>
+        <f t="shared" si="1"/>
         <v>4.5185126119660847E-4</v>
       </c>
       <c r="F105" s="3"/>
@@ -10942,7 +10945,7 @@
         <v>33</v>
       </c>
       <c r="E106" s="21">
-        <f>D106/75246</f>
+        <f t="shared" si="1"/>
         <v>4.3856151822023763E-4</v>
       </c>
       <c r="F106" s="3"/>
@@ -10965,14 +10968,14 @@
         <v>32</v>
       </c>
       <c r="E107" s="21">
-        <f>D107/75246</f>
+        <f t="shared" si="1"/>
         <v>4.2527177524386678E-4</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="22"/>
     </row>
-    <row r="108" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>555</v>
       </c>
@@ -10988,7 +10991,7 @@
         <v>32</v>
       </c>
       <c r="E108" s="21">
-        <f>D108/75246</f>
+        <f t="shared" si="1"/>
         <v>4.2527177524386678E-4</v>
       </c>
       <c r="F108" s="3"/>
@@ -11011,14 +11014,14 @@
         <v>31</v>
       </c>
       <c r="E109" s="21">
-        <f>D109/75246</f>
+        <f t="shared" si="1"/>
         <v>4.1198203226749594E-4</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="22"/>
     </row>
-    <row r="110" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>427</v>
       </c>
@@ -11034,7 +11037,7 @@
         <v>30</v>
       </c>
       <c r="E110" s="21">
-        <f>D110/75246</f>
+        <f t="shared" si="1"/>
         <v>3.986922892911251E-4</v>
       </c>
       <c r="F110" s="3"/>
@@ -11057,14 +11060,14 @@
         <v>30</v>
       </c>
       <c r="E111" s="21">
-        <f>D111/75246</f>
+        <f t="shared" si="1"/>
         <v>3.986922892911251E-4</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="22"/>
     </row>
-    <row r="112" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>395</v>
       </c>
@@ -11080,7 +11083,7 @@
         <v>29</v>
       </c>
       <c r="E112" s="21">
-        <f>D112/75246</f>
+        <f t="shared" si="1"/>
         <v>3.8540254631475425E-4</v>
       </c>
       <c r="F112" s="3"/>
@@ -11103,7 +11106,7 @@
         <v>29</v>
       </c>
       <c r="E113" s="21">
-        <f>D113/75246</f>
+        <f t="shared" si="1"/>
         <v>3.8540254631475425E-4</v>
       </c>
       <c r="F113" s="3"/>
@@ -11126,7 +11129,7 @@
         <v>29</v>
       </c>
       <c r="E114" s="21">
-        <f>D114/75246</f>
+        <f t="shared" si="1"/>
         <v>3.8540254631475425E-4</v>
       </c>
       <c r="F114" s="3"/>
@@ -11149,7 +11152,7 @@
         <v>28</v>
       </c>
       <c r="E115" s="21">
-        <f>D115/75246</f>
+        <f t="shared" si="1"/>
         <v>3.7211280333838341E-4</v>
       </c>
       <c r="F115" s="3"/>
@@ -11172,7 +11175,7 @@
         <v>28</v>
       </c>
       <c r="E116" s="21">
-        <f>D116/75246</f>
+        <f t="shared" si="1"/>
         <v>3.7211280333838341E-4</v>
       </c>
       <c r="F116" s="3"/>
@@ -11195,14 +11198,14 @@
         <v>28</v>
       </c>
       <c r="E117" s="21">
-        <f>D117/75246</f>
+        <f t="shared" si="1"/>
         <v>3.7211280333838341E-4</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="22"/>
     </row>
-    <row r="118" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>16</v>
       </c>
@@ -11218,7 +11221,7 @@
         <v>27</v>
       </c>
       <c r="E118" s="21">
-        <f>D118/75246</f>
+        <f t="shared" si="1"/>
         <v>3.5882306036201262E-4</v>
       </c>
       <c r="F118" s="3"/>
@@ -11241,14 +11244,14 @@
         <v>27</v>
       </c>
       <c r="E119" s="21">
-        <f>D119/75246</f>
+        <f t="shared" si="1"/>
         <v>3.5882306036201262E-4</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="22"/>
     </row>
-    <row r="120" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>448</v>
       </c>
@@ -11264,14 +11267,14 @@
         <v>25</v>
       </c>
       <c r="E120" s="21">
-        <f>D120/75246</f>
+        <f t="shared" si="1"/>
         <v>3.3224357440927093E-4</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="22"/>
     </row>
-    <row r="121" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>496</v>
       </c>
@@ -11287,7 +11290,7 @@
         <v>25</v>
       </c>
       <c r="E121" s="21">
-        <f>D121/75246</f>
+        <f t="shared" si="1"/>
         <v>3.3224357440927093E-4</v>
       </c>
       <c r="F121" s="3"/>
@@ -11310,14 +11313,14 @@
         <v>23</v>
       </c>
       <c r="E122" s="21">
-        <f>D122/75246</f>
+        <f t="shared" si="1"/>
         <v>3.0566408845652924E-4</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="22"/>
     </row>
-    <row r="123" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>35</v>
       </c>
@@ -11333,14 +11336,14 @@
         <v>22</v>
       </c>
       <c r="E123" s="21">
-        <f>D123/75246</f>
+        <f t="shared" si="1"/>
         <v>2.923743454801584E-4</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="22"/>
     </row>
-    <row r="124" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>482</v>
       </c>
@@ -11356,14 +11359,14 @@
         <v>22</v>
       </c>
       <c r="E124" s="21">
-        <f>D124/75246</f>
+        <f t="shared" si="1"/>
         <v>2.923743454801584E-4</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="22"/>
     </row>
-    <row r="125" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>516</v>
       </c>
@@ -11379,14 +11382,14 @@
         <v>22</v>
       </c>
       <c r="E125" s="21">
-        <f>D125/75246</f>
+        <f t="shared" si="1"/>
         <v>2.923743454801584E-4</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="22"/>
     </row>
-    <row r="126" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>430</v>
       </c>
@@ -11402,7 +11405,7 @@
         <v>21</v>
       </c>
       <c r="E126" s="21">
-        <f>D126/75246</f>
+        <f t="shared" si="1"/>
         <v>2.7908460250378756E-4</v>
       </c>
       <c r="F126" s="3"/>
@@ -11425,14 +11428,14 @@
         <v>21</v>
       </c>
       <c r="E127" s="21">
-        <f>D127/75246</f>
+        <f t="shared" si="1"/>
         <v>2.7908460250378756E-4</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="22"/>
     </row>
-    <row r="128" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>45</v>
       </c>
@@ -11448,14 +11451,14 @@
         <v>21</v>
       </c>
       <c r="E128" s="21">
-        <f>D128/75246</f>
+        <f t="shared" si="1"/>
         <v>2.7908460250378756E-4</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="22"/>
     </row>
-    <row r="129" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>12</v>
       </c>
@@ -11471,7 +11474,7 @@
         <v>20</v>
       </c>
       <c r="E129" s="21">
-        <f>D129/75246</f>
+        <f t="shared" si="1"/>
         <v>2.6579485952741671E-4</v>
       </c>
       <c r="F129" s="3"/>
@@ -11494,14 +11497,14 @@
         <v>20</v>
       </c>
       <c r="E130" s="21">
-        <f>D130/75246</f>
+        <f t="shared" ref="E130:E193" si="2">D130/75246</f>
         <v>2.6579485952741671E-4</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="22"/>
     </row>
-    <row r="131" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>472</v>
       </c>
@@ -11517,7 +11520,7 @@
         <v>20</v>
       </c>
       <c r="E131" s="21">
-        <f>D131/75246</f>
+        <f t="shared" si="2"/>
         <v>2.6579485952741671E-4</v>
       </c>
       <c r="F131" s="3"/>
@@ -11540,7 +11543,7 @@
         <v>19</v>
       </c>
       <c r="E132" s="21">
-        <f>D132/75246</f>
+        <f t="shared" si="2"/>
         <v>2.5250511655104592E-4</v>
       </c>
       <c r="F132" s="3"/>
@@ -11563,14 +11566,14 @@
         <v>18</v>
       </c>
       <c r="E133" s="21">
-        <f>D133/75246</f>
+        <f t="shared" si="2"/>
         <v>2.3921537357467505E-4</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="22"/>
     </row>
-    <row r="134" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>549</v>
       </c>
@@ -11586,7 +11589,7 @@
         <v>18</v>
       </c>
       <c r="E134" s="21">
-        <f>D134/75246</f>
+        <f t="shared" si="2"/>
         <v>2.3921537357467505E-4</v>
       </c>
       <c r="F134" s="3"/>
@@ -11609,14 +11612,14 @@
         <v>17</v>
       </c>
       <c r="E135" s="21">
-        <f>D135/75246</f>
+        <f t="shared" si="2"/>
         <v>2.2592563059830424E-4</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="22"/>
     </row>
-    <row r="136" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>77</v>
       </c>
@@ -11632,14 +11635,14 @@
         <v>17</v>
       </c>
       <c r="E136" s="21">
-        <f>D136/75246</f>
+        <f t="shared" si="2"/>
         <v>2.2592563059830424E-4</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="22"/>
     </row>
-    <row r="137" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>13</v>
       </c>
@@ -11655,14 +11658,14 @@
         <v>17</v>
       </c>
       <c r="E137" s="21">
-        <f>D137/75246</f>
+        <f t="shared" si="2"/>
         <v>2.2592563059830424E-4</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="22"/>
     </row>
-    <row r="138" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>473</v>
       </c>
@@ -11678,7 +11681,7 @@
         <v>17</v>
       </c>
       <c r="E138" s="21">
-        <f>D138/75246</f>
+        <f t="shared" si="2"/>
         <v>2.2592563059830424E-4</v>
       </c>
       <c r="F138" s="3"/>
@@ -11701,7 +11704,7 @@
         <v>16</v>
       </c>
       <c r="E139" s="21">
-        <f>D139/75246</f>
+        <f t="shared" si="2"/>
         <v>2.1263588762193339E-4</v>
       </c>
       <c r="F139" s="3"/>
@@ -11724,14 +11727,14 @@
         <v>16</v>
       </c>
       <c r="E140" s="21">
-        <f>D140/75246</f>
+        <f t="shared" si="2"/>
         <v>2.1263588762193339E-4</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="22"/>
     </row>
-    <row r="141" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>574</v>
       </c>
@@ -11747,7 +11750,7 @@
         <v>16</v>
       </c>
       <c r="E141" s="21">
-        <f>D141/75246</f>
+        <f t="shared" si="2"/>
         <v>2.1263588762193339E-4</v>
       </c>
       <c r="F141" s="3"/>
@@ -11770,7 +11773,7 @@
         <v>15</v>
       </c>
       <c r="E142" s="21">
-        <f>D142/75246</f>
+        <f t="shared" si="2"/>
         <v>1.9934614464556255E-4</v>
       </c>
       <c r="F142" s="3"/>
@@ -11793,7 +11796,7 @@
         <v>15</v>
       </c>
       <c r="E143" s="21">
-        <f>D143/75246</f>
+        <f t="shared" si="2"/>
         <v>1.9934614464556255E-4</v>
       </c>
       <c r="F143" s="3"/>
@@ -11816,7 +11819,7 @@
         <v>14</v>
       </c>
       <c r="E144" s="21">
-        <f>D144/75246</f>
+        <f t="shared" si="2"/>
         <v>1.860564016691917E-4</v>
       </c>
       <c r="F144" s="3"/>
@@ -11839,14 +11842,14 @@
         <v>14</v>
       </c>
       <c r="E145" s="21">
-        <f>D145/75246</f>
+        <f t="shared" si="2"/>
         <v>1.860564016691917E-4</v>
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="22"/>
     </row>
-    <row r="146" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>392</v>
       </c>
@@ -11862,14 +11865,14 @@
         <v>13</v>
       </c>
       <c r="E146" s="21">
-        <f>D146/75246</f>
+        <f t="shared" si="2"/>
         <v>1.7276665869282089E-4</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="22"/>
     </row>
-    <row r="147" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>21</v>
       </c>
@@ -11885,14 +11888,14 @@
         <v>13</v>
       </c>
       <c r="E147" s="21">
-        <f>D147/75246</f>
+        <f t="shared" si="2"/>
         <v>1.7276665869282089E-4</v>
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="22"/>
     </row>
-    <row r="148" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>570</v>
       </c>
@@ -11908,14 +11911,14 @@
         <v>13</v>
       </c>
       <c r="E148" s="21">
-        <f>D148/75246</f>
+        <f t="shared" si="2"/>
         <v>1.7276665869282089E-4</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="22"/>
     </row>
-    <row r="149" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>514</v>
       </c>
@@ -11931,14 +11934,14 @@
         <v>13</v>
       </c>
       <c r="E149" s="21">
-        <f>D149/75246</f>
+        <f t="shared" si="2"/>
         <v>1.7276665869282089E-4</v>
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="22"/>
     </row>
-    <row r="150" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>418</v>
       </c>
@@ -11954,14 +11957,14 @@
         <v>12</v>
       </c>
       <c r="E150" s="21">
-        <f>D150/75246</f>
+        <f t="shared" si="2"/>
         <v>1.5947691571645004E-4</v>
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="22"/>
     </row>
-    <row r="151" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>425</v>
       </c>
@@ -11977,7 +11980,7 @@
         <v>12</v>
       </c>
       <c r="E151" s="21">
-        <f>D151/75246</f>
+        <f t="shared" si="2"/>
         <v>1.5947691571645004E-4</v>
       </c>
       <c r="F151" s="3"/>
@@ -12000,7 +12003,7 @@
         <v>12</v>
       </c>
       <c r="E152" s="21">
-        <f>D152/75246</f>
+        <f t="shared" si="2"/>
         <v>1.5947691571645004E-4</v>
       </c>
       <c r="F152" s="3"/>
@@ -12023,7 +12026,7 @@
         <v>12</v>
       </c>
       <c r="E153" s="21">
-        <f>D153/75246</f>
+        <f t="shared" si="2"/>
         <v>1.5947691571645004E-4</v>
       </c>
       <c r="F153" s="3"/>
@@ -12046,7 +12049,7 @@
         <v>12</v>
       </c>
       <c r="E154" s="21">
-        <f>D154/75246</f>
+        <f t="shared" si="2"/>
         <v>1.5947691571645004E-4</v>
       </c>
       <c r="F154" s="3"/>
@@ -12069,14 +12072,14 @@
         <v>12</v>
       </c>
       <c r="E155" s="21">
-        <f>D155/75246</f>
+        <f t="shared" si="2"/>
         <v>1.5947691571645004E-4</v>
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="22"/>
     </row>
-    <row r="156" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>532</v>
       </c>
@@ -12092,14 +12095,14 @@
         <v>12</v>
       </c>
       <c r="E156" s="21">
-        <f>D156/75246</f>
+        <f t="shared" si="2"/>
         <v>1.5947691571645004E-4</v>
       </c>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="22"/>
     </row>
-    <row r="157" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>385</v>
       </c>
@@ -12115,7 +12118,7 @@
         <v>11</v>
       </c>
       <c r="E157" s="21">
-        <f>D157/75246</f>
+        <f t="shared" si="2"/>
         <v>1.461871727400792E-4</v>
       </c>
       <c r="F157" s="3"/>
@@ -12138,14 +12141,14 @@
         <v>11</v>
       </c>
       <c r="E158" s="21">
-        <f>D158/75246</f>
+        <f t="shared" si="2"/>
         <v>1.461871727400792E-4</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="22"/>
     </row>
-    <row r="159" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>75</v>
       </c>
@@ -12161,7 +12164,7 @@
         <v>11</v>
       </c>
       <c r="E159" s="21">
-        <f>D159/75246</f>
+        <f t="shared" si="2"/>
         <v>1.461871727400792E-4</v>
       </c>
       <c r="F159" s="3"/>
@@ -12184,7 +12187,7 @@
         <v>11</v>
       </c>
       <c r="E160" s="21">
-        <f>D160/75246</f>
+        <f t="shared" si="2"/>
         <v>1.461871727400792E-4</v>
       </c>
       <c r="F160" s="3"/>
@@ -12207,14 +12210,14 @@
         <v>11</v>
       </c>
       <c r="E161" s="21">
-        <f>D161/75246</f>
+        <f t="shared" si="2"/>
         <v>1.461871727400792E-4</v>
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="22"/>
     </row>
-    <row r="162" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>476</v>
       </c>
@@ -12230,14 +12233,14 @@
         <v>11</v>
       </c>
       <c r="E162" s="21">
-        <f>D162/75246</f>
+        <f t="shared" si="2"/>
         <v>1.461871727400792E-4</v>
       </c>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="22"/>
     </row>
-    <row r="163" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>534</v>
       </c>
@@ -12253,14 +12256,14 @@
         <v>11</v>
       </c>
       <c r="E163" s="21">
-        <f>D163/75246</f>
+        <f t="shared" si="2"/>
         <v>1.461871727400792E-4</v>
       </c>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="22"/>
     </row>
-    <row r="164" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>377</v>
       </c>
@@ -12276,14 +12279,14 @@
         <v>10</v>
       </c>
       <c r="E164" s="21">
-        <f>D164/75246</f>
+        <f t="shared" si="2"/>
         <v>1.3289742976370836E-4</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="22"/>
     </row>
-    <row r="165" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>380</v>
       </c>
@@ -12299,14 +12302,14 @@
         <v>10</v>
       </c>
       <c r="E165" s="21">
-        <f>D165/75246</f>
+        <f t="shared" si="2"/>
         <v>1.3289742976370836E-4</v>
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="22"/>
     </row>
-    <row r="166" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>405</v>
       </c>
@@ -12322,7 +12325,7 @@
         <v>10</v>
       </c>
       <c r="E166" s="21">
-        <f>D166/75246</f>
+        <f t="shared" si="2"/>
         <v>1.3289742976370836E-4</v>
       </c>
       <c r="F166" s="3"/>
@@ -12345,7 +12348,7 @@
         <v>10</v>
       </c>
       <c r="E167" s="21">
-        <f>D167/75246</f>
+        <f t="shared" si="2"/>
         <v>1.3289742976370836E-4</v>
       </c>
       <c r="F167" s="3"/>
@@ -12368,7 +12371,7 @@
         <v>10</v>
       </c>
       <c r="E168" s="21">
-        <f>D168/75246</f>
+        <f t="shared" si="2"/>
         <v>1.3289742976370836E-4</v>
       </c>
       <c r="F168" s="3"/>
@@ -12391,14 +12394,14 @@
         <v>10</v>
       </c>
       <c r="E169" s="21">
-        <f>D169/75246</f>
+        <f t="shared" si="2"/>
         <v>1.3289742976370836E-4</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="22"/>
     </row>
-    <row r="170" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>561</v>
       </c>
@@ -12414,14 +12417,14 @@
         <v>10</v>
       </c>
       <c r="E170" s="21">
-        <f>D170/75246</f>
+        <f t="shared" si="2"/>
         <v>1.3289742976370836E-4</v>
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="22"/>
     </row>
-    <row r="171" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>493</v>
       </c>
@@ -12437,7 +12440,7 @@
         <v>10</v>
       </c>
       <c r="E171" s="21">
-        <f>D171/75246</f>
+        <f t="shared" si="2"/>
         <v>1.3289742976370836E-4</v>
       </c>
       <c r="F171" s="3"/>
@@ -12460,7 +12463,7 @@
         <v>9</v>
       </c>
       <c r="E172" s="21">
-        <f>D172/75246</f>
+        <f t="shared" si="2"/>
         <v>1.1960768678733753E-4</v>
       </c>
       <c r="F172" s="3"/>
@@ -12483,14 +12486,14 @@
         <v>9</v>
       </c>
       <c r="E173" s="21">
-        <f>D173/75246</f>
+        <f t="shared" si="2"/>
         <v>1.1960768678733753E-4</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="22"/>
     </row>
-    <row r="174" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>459</v>
       </c>
@@ -12506,14 +12509,14 @@
         <v>9</v>
       </c>
       <c r="E174" s="21">
-        <f>D174/75246</f>
+        <f t="shared" si="2"/>
         <v>1.1960768678733753E-4</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="22"/>
     </row>
-    <row r="175" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>503</v>
       </c>
@@ -12529,14 +12532,14 @@
         <v>9</v>
       </c>
       <c r="E175" s="21">
-        <f>D175/75246</f>
+        <f t="shared" si="2"/>
         <v>1.1960768678733753E-4</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="22"/>
     </row>
-    <row r="176" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>393</v>
       </c>
@@ -12552,7 +12555,7 @@
         <v>8</v>
       </c>
       <c r="E176" s="21">
-        <f>D176/75246</f>
+        <f t="shared" si="2"/>
         <v>1.063179438109667E-4</v>
       </c>
       <c r="F176" s="3"/>
@@ -12575,7 +12578,7 @@
         <v>8</v>
       </c>
       <c r="E177" s="21">
-        <f>D177/75246</f>
+        <f t="shared" si="2"/>
         <v>1.063179438109667E-4</v>
       </c>
       <c r="F177" s="3"/>
@@ -12598,7 +12601,7 @@
         <v>8</v>
       </c>
       <c r="E178" s="21">
-        <f>D178/75246</f>
+        <f t="shared" si="2"/>
         <v>1.063179438109667E-4</v>
       </c>
       <c r="F178" s="3"/>
@@ -12621,7 +12624,7 @@
         <v>8</v>
       </c>
       <c r="E179" s="21">
-        <f>D179/75246</f>
+        <f t="shared" si="2"/>
         <v>1.063179438109667E-4</v>
       </c>
       <c r="F179" s="3"/>
@@ -12644,7 +12647,7 @@
         <v>8</v>
       </c>
       <c r="E180" s="21">
-        <f>D180/75246</f>
+        <f t="shared" si="2"/>
         <v>1.063179438109667E-4</v>
       </c>
       <c r="F180" s="3"/>
@@ -12667,7 +12670,7 @@
         <v>8</v>
       </c>
       <c r="E181" s="21">
-        <f>D181/75246</f>
+        <f t="shared" si="2"/>
         <v>1.063179438109667E-4</v>
       </c>
       <c r="F181" s="3"/>
@@ -12690,7 +12693,7 @@
         <v>8</v>
       </c>
       <c r="E182" s="21">
-        <f>D182/75246</f>
+        <f t="shared" si="2"/>
         <v>1.063179438109667E-4</v>
       </c>
       <c r="F182" s="3"/>
@@ -12713,7 +12716,7 @@
         <v>8</v>
       </c>
       <c r="E183" s="21">
-        <f>D183/75246</f>
+        <f t="shared" si="2"/>
         <v>1.063179438109667E-4</v>
       </c>
       <c r="F183" s="3"/>
@@ -12736,14 +12739,14 @@
         <v>8</v>
       </c>
       <c r="E184" s="21">
-        <f>D184/75246</f>
+        <f t="shared" si="2"/>
         <v>1.063179438109667E-4</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="22"/>
     </row>
-    <row r="185" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>51</v>
       </c>
@@ -12759,14 +12762,14 @@
         <v>8</v>
       </c>
       <c r="E185" s="21">
-        <f>D185/75246</f>
+        <f t="shared" si="2"/>
         <v>1.063179438109667E-4</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="22"/>
     </row>
-    <row r="186" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>492</v>
       </c>
@@ -12782,14 +12785,14 @@
         <v>8</v>
       </c>
       <c r="E186" s="21">
-        <f>D186/75246</f>
+        <f t="shared" si="2"/>
         <v>1.063179438109667E-4</v>
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="22"/>
     </row>
-    <row r="187" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>431</v>
       </c>
@@ -12805,14 +12808,14 @@
         <v>7</v>
       </c>
       <c r="E187" s="21">
-        <f>D187/75246</f>
+        <f t="shared" si="2"/>
         <v>9.3028200834595852E-5</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="22"/>
     </row>
-    <row r="188" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>434</v>
       </c>
@@ -12828,7 +12831,7 @@
         <v>7</v>
       </c>
       <c r="E188" s="21">
-        <f>D188/75246</f>
+        <f t="shared" si="2"/>
         <v>9.3028200834595852E-5</v>
       </c>
       <c r="F188" s="3"/>
@@ -12851,7 +12854,7 @@
         <v>7</v>
       </c>
       <c r="E189" s="21">
-        <f>D189/75246</f>
+        <f t="shared" si="2"/>
         <v>9.3028200834595852E-5</v>
       </c>
       <c r="F189" s="3"/>
@@ -12874,14 +12877,14 @@
         <v>7</v>
       </c>
       <c r="E190" s="21">
-        <f>D190/75246</f>
+        <f t="shared" si="2"/>
         <v>9.3028200834595852E-5</v>
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="22"/>
     </row>
-    <row r="191" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>451</v>
       </c>
@@ -12897,14 +12900,14 @@
         <v>7</v>
       </c>
       <c r="E191" s="21">
-        <f>D191/75246</f>
+        <f t="shared" si="2"/>
         <v>9.3028200834595852E-5</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="22"/>
     </row>
-    <row r="192" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>488</v>
       </c>
@@ -12920,14 +12923,14 @@
         <v>7</v>
       </c>
       <c r="E192" s="21">
-        <f>D192/75246</f>
+        <f t="shared" si="2"/>
         <v>9.3028200834595852E-5</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="22"/>
     </row>
-    <row r="193" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>506</v>
       </c>
@@ -12943,14 +12946,14 @@
         <v>7</v>
       </c>
       <c r="E193" s="21">
-        <f>D193/75246</f>
+        <f t="shared" si="2"/>
         <v>9.3028200834595852E-5</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="22"/>
     </row>
-    <row r="194" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>517</v>
       </c>
@@ -12966,7 +12969,7 @@
         <v>7</v>
       </c>
       <c r="E194" s="21">
-        <f>D194/75246</f>
+        <f t="shared" ref="E194:E257" si="3">D194/75246</f>
         <v>9.3028200834595852E-5</v>
       </c>
       <c r="F194" s="3"/>
@@ -12989,7 +12992,7 @@
         <v>6</v>
       </c>
       <c r="E195" s="21">
-        <f>D195/75246</f>
+        <f t="shared" si="3"/>
         <v>7.9738457858225022E-5</v>
       </c>
       <c r="F195" s="3"/>
@@ -13012,7 +13015,7 @@
         <v>6</v>
       </c>
       <c r="E196" s="21">
-        <f>D196/75246</f>
+        <f t="shared" si="3"/>
         <v>7.9738457858225022E-5</v>
       </c>
       <c r="F196" s="3"/>
@@ -13035,7 +13038,7 @@
         <v>6</v>
       </c>
       <c r="E197" s="21">
-        <f>D197/75246</f>
+        <f t="shared" si="3"/>
         <v>7.9738457858225022E-5</v>
       </c>
       <c r="F197" s="3"/>
@@ -13058,7 +13061,7 @@
         <v>6</v>
       </c>
       <c r="E198" s="21">
-        <f>D198/75246</f>
+        <f t="shared" si="3"/>
         <v>7.9738457858225022E-5</v>
       </c>
       <c r="F198" s="3"/>
@@ -13081,14 +13084,14 @@
         <v>6</v>
       </c>
       <c r="E199" s="21">
-        <f>D199/75246</f>
+        <f t="shared" si="3"/>
         <v>7.9738457858225022E-5</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="22"/>
     </row>
-    <row r="200" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>28</v>
       </c>
@@ -13104,7 +13107,7 @@
         <v>6</v>
       </c>
       <c r="E200" s="21">
-        <f>D200/75246</f>
+        <f t="shared" si="3"/>
         <v>7.9738457858225022E-5</v>
       </c>
       <c r="F200" s="3"/>
@@ -13127,14 +13130,14 @@
         <v>6</v>
       </c>
       <c r="E201" s="21">
-        <f>D201/75246</f>
+        <f t="shared" si="3"/>
         <v>7.9738457858225022E-5</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="22"/>
     </row>
-    <row r="202" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>449</v>
       </c>
@@ -13150,14 +13153,14 @@
         <v>6</v>
       </c>
       <c r="E202" s="21">
-        <f>D202/75246</f>
+        <f t="shared" si="3"/>
         <v>7.9738457858225022E-5</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="22"/>
     </row>
-    <row r="203" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>409</v>
       </c>
@@ -13173,14 +13176,14 @@
         <v>5</v>
       </c>
       <c r="E203" s="21">
-        <f>D203/75246</f>
+        <f t="shared" si="3"/>
         <v>6.6448714881854178E-5</v>
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="22"/>
     </row>
-    <row r="204" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>398</v>
       </c>
@@ -13196,7 +13199,7 @@
         <v>5</v>
       </c>
       <c r="E204" s="21">
-        <f>D204/75246</f>
+        <f t="shared" si="3"/>
         <v>6.6448714881854178E-5</v>
       </c>
       <c r="F204" s="3"/>
@@ -13219,7 +13222,7 @@
         <v>5</v>
       </c>
       <c r="E205" s="21">
-        <f>D205/75246</f>
+        <f t="shared" si="3"/>
         <v>6.6448714881854178E-5</v>
       </c>
       <c r="F205" s="3"/>
@@ -13242,7 +13245,7 @@
         <v>5</v>
       </c>
       <c r="E206" s="21">
-        <f>D206/75246</f>
+        <f t="shared" si="3"/>
         <v>6.6448714881854178E-5</v>
       </c>
       <c r="F206" s="3"/>
@@ -13265,7 +13268,7 @@
         <v>5</v>
       </c>
       <c r="E207" s="21">
-        <f>D207/75246</f>
+        <f t="shared" si="3"/>
         <v>6.6448714881854178E-5</v>
       </c>
       <c r="F207" s="3"/>
@@ -13288,7 +13291,7 @@
         <v>5</v>
       </c>
       <c r="E208" s="21">
-        <f>D208/75246</f>
+        <f t="shared" si="3"/>
         <v>6.6448714881854178E-5</v>
       </c>
       <c r="F208" s="3"/>
@@ -13311,7 +13314,7 @@
         <v>5</v>
       </c>
       <c r="E209" s="21">
-        <f>D209/75246</f>
+        <f t="shared" si="3"/>
         <v>6.6448714881854178E-5</v>
       </c>
       <c r="F209" s="3"/>
@@ -13334,14 +13337,14 @@
         <v>5</v>
       </c>
       <c r="E210" s="21">
-        <f>D210/75246</f>
+        <f t="shared" si="3"/>
         <v>6.6448714881854178E-5</v>
       </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="22"/>
     </row>
-    <row r="211" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>23</v>
       </c>
@@ -13357,14 +13360,14 @@
         <v>5</v>
       </c>
       <c r="E211" s="21">
-        <f>D211/75246</f>
+        <f t="shared" si="3"/>
         <v>6.6448714881854178E-5</v>
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="22"/>
     </row>
-    <row r="212" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>455</v>
       </c>
@@ -13380,14 +13383,14 @@
         <v>5</v>
       </c>
       <c r="E212" s="21">
-        <f>D212/75246</f>
+        <f t="shared" si="3"/>
         <v>6.6448714881854178E-5</v>
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="22"/>
     </row>
-    <row r="213" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>571</v>
       </c>
@@ -13403,14 +13406,14 @@
         <v>5</v>
       </c>
       <c r="E213" s="21">
-        <f>D213/75246</f>
+        <f t="shared" si="3"/>
         <v>6.6448714881854178E-5</v>
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="22"/>
     </row>
-    <row r="214" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>580</v>
       </c>
@@ -13426,14 +13429,14 @@
         <v>5</v>
       </c>
       <c r="E214" s="21">
-        <f>D214/75246</f>
+        <f t="shared" si="3"/>
         <v>6.6448714881854178E-5</v>
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="22"/>
     </row>
-    <row r="215" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>480</v>
       </c>
@@ -13449,14 +13452,14 @@
         <v>5</v>
       </c>
       <c r="E215" s="21">
-        <f>D215/75246</f>
+        <f t="shared" si="3"/>
         <v>6.6448714881854178E-5</v>
       </c>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="22"/>
     </row>
-    <row r="216" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>483</v>
       </c>
@@ -13472,14 +13475,14 @@
         <v>5</v>
       </c>
       <c r="E216" s="21">
-        <f>D216/75246</f>
+        <f t="shared" si="3"/>
         <v>6.6448714881854178E-5</v>
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="22"/>
     </row>
-    <row r="217" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>379</v>
       </c>
@@ -13495,14 +13498,14 @@
         <v>4</v>
       </c>
       <c r="E217" s="21">
-        <f>D217/75246</f>
+        <f t="shared" si="3"/>
         <v>5.3158971905483348E-5</v>
       </c>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="22"/>
     </row>
-    <row r="218" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>396</v>
       </c>
@@ -13518,7 +13521,7 @@
         <v>4</v>
       </c>
       <c r="E218" s="21">
-        <f>D218/75246</f>
+        <f t="shared" si="3"/>
         <v>5.3158971905483348E-5</v>
       </c>
       <c r="F218" s="3"/>
@@ -13541,7 +13544,7 @@
         <v>4</v>
       </c>
       <c r="E219" s="21">
-        <f>D219/75246</f>
+        <f t="shared" si="3"/>
         <v>5.3158971905483348E-5</v>
       </c>
       <c r="F219" s="3"/>
@@ -13564,7 +13567,7 @@
         <v>4</v>
       </c>
       <c r="E220" s="21">
-        <f>D220/75246</f>
+        <f t="shared" si="3"/>
         <v>5.3158971905483348E-5</v>
       </c>
       <c r="F220" s="3"/>
@@ -13587,7 +13590,7 @@
         <v>4</v>
       </c>
       <c r="E221" s="21">
-        <f>D221/75246</f>
+        <f t="shared" si="3"/>
         <v>5.3158971905483348E-5</v>
       </c>
       <c r="F221" s="3"/>
@@ -13610,7 +13613,7 @@
         <v>4</v>
       </c>
       <c r="E222" s="21">
-        <f>D222/75246</f>
+        <f t="shared" si="3"/>
         <v>5.3158971905483348E-5</v>
       </c>
       <c r="F222" s="3"/>
@@ -13633,14 +13636,14 @@
         <v>4</v>
       </c>
       <c r="E223" s="21">
-        <f>D223/75246</f>
+        <f t="shared" si="3"/>
         <v>5.3158971905483348E-5</v>
       </c>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="22"/>
     </row>
-    <row r="224" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>41</v>
       </c>
@@ -13656,14 +13659,14 @@
         <v>4</v>
       </c>
       <c r="E224" s="21">
-        <f>D224/75246</f>
+        <f t="shared" si="3"/>
         <v>5.3158971905483348E-5</v>
       </c>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="22"/>
     </row>
-    <row r="225" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>454</v>
       </c>
@@ -13679,14 +13682,14 @@
         <v>4</v>
       </c>
       <c r="E225" s="21">
-        <f>D225/75246</f>
+        <f t="shared" si="3"/>
         <v>5.3158971905483348E-5</v>
       </c>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="22"/>
     </row>
-    <row r="226" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>562</v>
       </c>
@@ -13702,14 +13705,14 @@
         <v>4</v>
       </c>
       <c r="E226" s="21">
-        <f>D226/75246</f>
+        <f t="shared" si="3"/>
         <v>5.3158971905483348E-5</v>
       </c>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="22"/>
     </row>
-    <row r="227" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>520</v>
       </c>
@@ -13725,14 +13728,14 @@
         <v>4</v>
       </c>
       <c r="E227" s="21">
-        <f>D227/75246</f>
+        <f t="shared" si="3"/>
         <v>5.3158971905483348E-5</v>
       </c>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="22"/>
     </row>
-    <row r="228" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>530</v>
       </c>
@@ -13748,14 +13751,14 @@
         <v>4</v>
       </c>
       <c r="E228" s="21">
-        <f>D228/75246</f>
+        <f t="shared" si="3"/>
         <v>5.3158971905483348E-5</v>
       </c>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="22"/>
     </row>
-    <row r="229" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>414</v>
       </c>
@@ -13771,14 +13774,14 @@
         <v>3</v>
       </c>
       <c r="E229" s="21">
-        <f>D229/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="22"/>
     </row>
-    <row r="230" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>438</v>
       </c>
@@ -13794,14 +13797,14 @@
         <v>3</v>
       </c>
       <c r="E230" s="21">
-        <f>D230/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="22"/>
     </row>
-    <row r="231" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>386</v>
       </c>
@@ -13817,14 +13820,14 @@
         <v>3</v>
       </c>
       <c r="E231" s="21">
-        <f>D231/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
       <c r="H231" s="22"/>
     </row>
-    <row r="232" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>391</v>
       </c>
@@ -13840,14 +13843,14 @@
         <v>3</v>
       </c>
       <c r="E232" s="21">
-        <f>D232/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="H232" s="22"/>
     </row>
-    <row r="233" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>401</v>
       </c>
@@ -13863,7 +13866,7 @@
         <v>3</v>
       </c>
       <c r="E233" s="21">
-        <f>D233/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F233" s="3"/>
@@ -13886,7 +13889,7 @@
         <v>3</v>
       </c>
       <c r="E234" s="21">
-        <f>D234/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F234" s="3"/>
@@ -13909,7 +13912,7 @@
         <v>3</v>
       </c>
       <c r="E235" s="21">
-        <f>D235/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F235" s="3"/>
@@ -13932,7 +13935,7 @@
         <v>3</v>
       </c>
       <c r="E236" s="21">
-        <f>D236/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F236" s="3"/>
@@ -13955,7 +13958,7 @@
         <v>3</v>
       </c>
       <c r="E237" s="21">
-        <f>D237/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F237" s="3"/>
@@ -13978,7 +13981,7 @@
         <v>3</v>
       </c>
       <c r="E238" s="21">
-        <f>D238/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F238" s="3"/>
@@ -14001,7 +14004,7 @@
         <v>3</v>
       </c>
       <c r="E239" s="21">
-        <f>D239/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F239" s="3"/>
@@ -14024,14 +14027,14 @@
         <v>3</v>
       </c>
       <c r="E240" s="21">
-        <f>D240/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="22"/>
     </row>
-    <row r="241" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>29</v>
       </c>
@@ -14047,14 +14050,14 @@
         <v>3</v>
       </c>
       <c r="E241" s="21">
-        <f>D241/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="22"/>
     </row>
-    <row r="242" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>56</v>
       </c>
@@ -14070,7 +14073,7 @@
         <v>3</v>
       </c>
       <c r="E242" s="21">
-        <f>D242/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F242" s="3"/>
@@ -14093,14 +14096,14 @@
         <v>3</v>
       </c>
       <c r="E243" s="21">
-        <f>D243/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="22"/>
     </row>
-    <row r="244" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>453</v>
       </c>
@@ -14116,14 +14119,14 @@
         <v>3</v>
       </c>
       <c r="E244" s="21">
-        <f>D244/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="22"/>
     </row>
-    <row r="245" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>564</v>
       </c>
@@ -14139,14 +14142,14 @@
         <v>3</v>
       </c>
       <c r="E245" s="21">
-        <f>D245/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="H245" s="22"/>
     </row>
-    <row r="246" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>567</v>
       </c>
@@ -14162,14 +14165,14 @@
         <v>3</v>
       </c>
       <c r="E246" s="21">
-        <f>D246/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="H246" s="22"/>
     </row>
-    <row r="247" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>569</v>
       </c>
@@ -14185,14 +14188,14 @@
         <v>3</v>
       </c>
       <c r="E247" s="21">
-        <f>D247/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="22"/>
     </row>
-    <row r="248" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>575</v>
       </c>
@@ -14208,14 +14211,14 @@
         <v>3</v>
       </c>
       <c r="E248" s="21">
-        <f>D248/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="H248" s="22"/>
     </row>
-    <row r="249" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>590</v>
       </c>
@@ -14231,14 +14234,14 @@
         <v>3</v>
       </c>
       <c r="E249" s="21">
-        <f>D249/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="22"/>
     </row>
-    <row r="250" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>510</v>
       </c>
@@ -14254,14 +14257,14 @@
         <v>3</v>
       </c>
       <c r="E250" s="21">
-        <f>D250/75246</f>
+        <f t="shared" si="3"/>
         <v>3.9869228929112511E-5</v>
       </c>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="22"/>
     </row>
-    <row r="251" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>424</v>
       </c>
@@ -14277,14 +14280,14 @@
         <v>2</v>
       </c>
       <c r="E251" s="21">
-        <f>D251/75246</f>
+        <f t="shared" si="3"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="22"/>
     </row>
-    <row r="252" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>440</v>
       </c>
@@ -14300,14 +14303,14 @@
         <v>2</v>
       </c>
       <c r="E252" s="21">
-        <f>D252/75246</f>
+        <f t="shared" si="3"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="22"/>
     </row>
-    <row r="253" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>374</v>
       </c>
@@ -14323,14 +14326,14 @@
         <v>2</v>
       </c>
       <c r="E253" s="21">
-        <f>D253/75246</f>
+        <f t="shared" si="3"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="22"/>
     </row>
-    <row r="254" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>378</v>
       </c>
@@ -14346,14 +14349,14 @@
         <v>2</v>
       </c>
       <c r="E254" s="21">
-        <f>D254/75246</f>
+        <f t="shared" si="3"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="22"/>
     </row>
-    <row r="255" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>389</v>
       </c>
@@ -14369,14 +14372,14 @@
         <v>2</v>
       </c>
       <c r="E255" s="21">
-        <f>D255/75246</f>
+        <f t="shared" si="3"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="22"/>
     </row>
-    <row r="256" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>403</v>
       </c>
@@ -14392,7 +14395,7 @@
         <v>2</v>
       </c>
       <c r="E256" s="21">
-        <f>D256/75246</f>
+        <f t="shared" si="3"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F256" s="3"/>
@@ -14415,7 +14418,7 @@
         <v>2</v>
       </c>
       <c r="E257" s="21">
-        <f>D257/75246</f>
+        <f t="shared" si="3"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F257" s="3"/>
@@ -14438,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="E258" s="21">
-        <f>D258/75246</f>
+        <f t="shared" ref="E258:E313" si="4">D258/75246</f>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F258" s="3"/>
@@ -14461,7 +14464,7 @@
         <v>2</v>
       </c>
       <c r="E259" s="21">
-        <f>D259/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F259" s="3"/>
@@ -14484,7 +14487,7 @@
         <v>2</v>
       </c>
       <c r="E260" s="21">
-        <f>D260/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F260" s="3"/>
@@ -14507,7 +14510,7 @@
         <v>2</v>
       </c>
       <c r="E261" s="21">
-        <f>D261/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F261" s="3"/>
@@ -14530,7 +14533,7 @@
         <v>2</v>
       </c>
       <c r="E262" s="21">
-        <f>D262/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F262" s="3"/>
@@ -14553,7 +14556,7 @@
         <v>2</v>
       </c>
       <c r="E263" s="21">
-        <f>D263/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F263" s="3"/>
@@ -14576,7 +14579,7 @@
         <v>2</v>
       </c>
       <c r="E264" s="21">
-        <f>D264/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F264" s="3"/>
@@ -14599,7 +14602,7 @@
         <v>2</v>
       </c>
       <c r="E265" s="21">
-        <f>D265/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F265" s="3"/>
@@ -14622,7 +14625,7 @@
         <v>2</v>
       </c>
       <c r="E266" s="21">
-        <f>D266/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F266" s="3"/>
@@ -14645,7 +14648,7 @@
         <v>2</v>
       </c>
       <c r="E267" s="21">
-        <f>D267/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F267" s="3"/>
@@ -14668,7 +14671,7 @@
         <v>2</v>
       </c>
       <c r="E268" s="21">
-        <f>D268/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F268" s="3"/>
@@ -14691,14 +14694,14 @@
         <v>2</v>
       </c>
       <c r="E269" s="21">
-        <f>D269/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="H269" s="22"/>
     </row>
-    <row r="270" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>60</v>
       </c>
@@ -14714,14 +14717,14 @@
         <v>2</v>
       </c>
       <c r="E270" s="21">
-        <f>D270/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
       <c r="H270" s="22"/>
     </row>
-    <row r="271" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>54</v>
       </c>
@@ -14737,14 +14740,14 @@
         <v>2</v>
       </c>
       <c r="E271" s="21">
-        <f>D271/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
       <c r="H271" s="22"/>
     </row>
-    <row r="272" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>461</v>
       </c>
@@ -14760,14 +14763,14 @@
         <v>2</v>
       </c>
       <c r="E272" s="21">
-        <f>D272/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
       <c r="H272" s="22"/>
     </row>
-    <row r="273" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>556</v>
       </c>
@@ -14783,14 +14786,14 @@
         <v>2</v>
       </c>
       <c r="E273" s="21">
-        <f>D273/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
       <c r="H273" s="22"/>
     </row>
-    <row r="274" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>547</v>
       </c>
@@ -14806,14 +14809,14 @@
         <v>2</v>
       </c>
       <c r="E274" s="21">
-        <f>D274/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
       <c r="H274" s="22"/>
     </row>
-    <row r="275" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>552</v>
       </c>
@@ -14829,14 +14832,14 @@
         <v>2</v>
       </c>
       <c r="E275" s="21">
-        <f>D275/75246</f>
+        <f t="shared" si="4"/>
         <v>2.6579485952741674E-5</v>
       </c>
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
       <c r="H275" s="22"/>
     </row>
-    <row r="276" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>410</v>
       </c>
@@ -14852,14 +14855,14 @@
         <v>1</v>
       </c>
       <c r="E276" s="21">
-        <f>D276/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
       <c r="H276" s="22"/>
     </row>
-    <row r="277" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>422</v>
       </c>
@@ -14875,14 +14878,14 @@
         <v>1</v>
       </c>
       <c r="E277" s="21">
-        <f>D277/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
       <c r="H277" s="22"/>
     </row>
-    <row r="278" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>423</v>
       </c>
@@ -14898,7 +14901,7 @@
         <v>1</v>
       </c>
       <c r="E278" s="21">
-        <f>D278/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F278" s="3"/>
@@ -14921,7 +14924,7 @@
         <v>1</v>
       </c>
       <c r="E279" s="21">
-        <f>D279/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F279" s="3"/>
@@ -14944,7 +14947,7 @@
         <v>1</v>
       </c>
       <c r="E280" s="21">
-        <f>D280/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F280" s="3"/>
@@ -14967,7 +14970,7 @@
         <v>1</v>
       </c>
       <c r="E281" s="21">
-        <f>D281/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F281" s="3"/>
@@ -14990,7 +14993,7 @@
         <v>1</v>
       </c>
       <c r="E282" s="21">
-        <f>D282/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F282" s="3"/>
@@ -15013,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="E283" s="21">
-        <f>D283/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F283" s="3"/>
@@ -15036,7 +15039,7 @@
         <v>1</v>
       </c>
       <c r="E284" s="21">
-        <f>D284/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F284" s="3"/>
@@ -15059,7 +15062,7 @@
         <v>1</v>
       </c>
       <c r="E285" s="21">
-        <f>D285/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F285" s="3"/>
@@ -15082,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="E286" s="21">
-        <f>D286/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F286" s="3"/>
@@ -15105,7 +15108,7 @@
         <v>1</v>
       </c>
       <c r="E287" s="21">
-        <f>D287/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F287" s="3"/>
@@ -15128,7 +15131,7 @@
         <v>1</v>
       </c>
       <c r="E288" s="21">
-        <f>D288/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F288" s="3"/>
@@ -15151,7 +15154,7 @@
         <v>1</v>
       </c>
       <c r="E289" s="21">
-        <f>D289/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F289" s="3"/>
@@ -15174,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="E290" s="21">
-        <f>D290/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F290" s="3"/>
@@ -15197,7 +15200,7 @@
         <v>1</v>
       </c>
       <c r="E291" s="21">
-        <f>D291/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F291" s="3"/>
@@ -15220,7 +15223,7 @@
         <v>1</v>
       </c>
       <c r="E292" s="21">
-        <f>D292/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F292" s="3"/>
@@ -15243,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="E293" s="21">
-        <f>D293/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F293" s="3"/>
@@ -15266,7 +15269,7 @@
         <v>1</v>
       </c>
       <c r="E294" s="21">
-        <f>D294/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F294" s="3"/>
@@ -15289,14 +15292,14 @@
         <v>1</v>
       </c>
       <c r="E295" s="21">
-        <f>D295/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="H295" s="22"/>
     </row>
-    <row r="296" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>456</v>
       </c>
@@ -15312,14 +15315,14 @@
         <v>1</v>
       </c>
       <c r="E296" s="21">
-        <f>D296/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
       <c r="H296" s="22"/>
     </row>
-    <row r="297" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>457</v>
       </c>
@@ -15335,14 +15338,14 @@
         <v>1</v>
       </c>
       <c r="E297" s="21">
-        <f>D297/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
       <c r="H297" s="22"/>
     </row>
-    <row r="298" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>460</v>
       </c>
@@ -15358,14 +15361,14 @@
         <v>1</v>
       </c>
       <c r="E298" s="21">
-        <f>D298/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
       <c r="H298" s="22"/>
     </row>
-    <row r="299" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>557</v>
       </c>
@@ -15381,14 +15384,14 @@
         <v>1</v>
       </c>
       <c r="E299" s="21">
-        <f>D299/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
       <c r="H299" s="22"/>
     </row>
-    <row r="300" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>578</v>
       </c>
@@ -15404,14 +15407,14 @@
         <v>1</v>
       </c>
       <c r="E300" s="21">
-        <f>D300/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
       <c r="H300" s="22"/>
     </row>
-    <row r="301" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>58</v>
       </c>
@@ -15427,14 +15430,14 @@
         <v>1</v>
       </c>
       <c r="E301" s="21">
-        <f>D301/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
       <c r="H301" s="22"/>
     </row>
-    <row r="302" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>74</v>
       </c>
@@ -15450,14 +15453,14 @@
         <v>1</v>
       </c>
       <c r="E302" s="21">
-        <f>D302/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
       <c r="H302" s="22"/>
     </row>
-    <row r="303" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>32</v>
       </c>
@@ -15473,14 +15476,14 @@
         <v>1</v>
       </c>
       <c r="E303" s="21">
-        <f>D303/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
       <c r="H303" s="22"/>
     </row>
-    <row r="304" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>581</v>
       </c>
@@ -15496,14 +15499,14 @@
         <v>1</v>
       </c>
       <c r="E304" s="21">
-        <f>D304/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
       <c r="H304" s="22"/>
     </row>
-    <row r="305" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>586</v>
       </c>
@@ -15519,14 +15522,14 @@
         <v>1</v>
       </c>
       <c r="E305" s="21">
-        <f>D305/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
       <c r="H305" s="22"/>
     </row>
-    <row r="306" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>467</v>
       </c>
@@ -15542,14 +15545,14 @@
         <v>1</v>
       </c>
       <c r="E306" s="21">
-        <f>D306/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
       <c r="H306" s="22"/>
     </row>
-    <row r="307" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>468</v>
       </c>
@@ -15565,14 +15568,14 @@
         <v>1</v>
       </c>
       <c r="E307" s="21">
-        <f>D307/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
       <c r="H307" s="22"/>
     </row>
-    <row r="308" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>477</v>
       </c>
@@ -15588,14 +15591,14 @@
         <v>1</v>
       </c>
       <c r="E308" s="21">
-        <f>D308/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
       <c r="H308" s="22"/>
     </row>
-    <row r="309" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>498</v>
       </c>
@@ -15611,14 +15614,14 @@
         <v>1</v>
       </c>
       <c r="E309" s="21">
-        <f>D309/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
       <c r="H309" s="22"/>
     </row>
-    <row r="310" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>504</v>
       </c>
@@ -15634,14 +15637,14 @@
         <v>1</v>
       </c>
       <c r="E310" s="21">
-        <f>D310/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
       <c r="H310" s="22"/>
     </row>
-    <row r="311" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>508</v>
       </c>
@@ -15657,14 +15660,14 @@
         <v>1</v>
       </c>
       <c r="E311" s="21">
-        <f>D311/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
       <c r="H311" s="22"/>
     </row>
-    <row r="312" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>540</v>
       </c>
@@ -15680,14 +15683,14 @@
         <v>1</v>
       </c>
       <c r="E312" s="21">
-        <f>D312/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
       <c r="H312" s="22"/>
     </row>
-    <row r="313" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>544</v>
       </c>
@@ -15703,7 +15706,7 @@
         <v>1</v>
       </c>
       <c r="E313" s="21">
-        <f>D313/75246</f>
+        <f t="shared" si="4"/>
         <v>1.3289742976370837E-5</v>
       </c>
       <c r="F313" s="3"/>
@@ -15726,6 +15729,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E313">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Varttala"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Full verbs - Nonfactive reporting verbs"/>
+        <filter val="Full verbs - Tentative cognition verbs"/>
+        <filter val="Full verbs - Tentative linking verbs"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:E313">
       <sortCondition descending="1" ref="D1:D313"/>
     </sortState>
@@ -15741,8 +15756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16094,12 +16109,12 @@
         <v>151</v>
       </c>
       <c r="C27" s="18">
-        <f ca="1">SUMIFS('hedges-ic'!D2:D313,'hedges-ic'!C2:C313,"Adjectives - Approximative Adjectives") + SUMIFS('hedges-ic'!D2:D313,'hedges-ic'!C2:C313,"Adjectives - Adjectives of Indefinite Degree")</f>
-        <v>939</v>
+        <f ca="1">SUMIFS('hedges-ic'!D2:D313,'hedges-ic'!C2:C313,"Full verbs - Nonfactive reporting verbs") + SUMIFS('hedges-ic'!D2:D313,'hedges-ic'!C2:C313,"Full verbs - Tentative cognition verbs") + SUMIFS('hedges-ic'!D2:D313,'hedges-ic'!C2:C313,"Full verbs - Tentative linking verbs")</f>
+        <v>12060</v>
       </c>
       <c r="D27" s="27">
         <f ca="1">C27/C31</f>
-        <v>1.8553645524599881E-2</v>
+        <v>0.23829282750444578</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -16128,12 +16143,12 @@
         <v>23</v>
       </c>
       <c r="C29" s="18">
-        <f ca="1">SUMIFS('hedges-ic'!D2:D313,'hedges-ic'!C2:C313,"Full verbs - Nonfactive reporting verbs") + SUMIFS('hedges-ic'!D2:D313,'hedges-ic'!C2:C313,"Full verbs - Tentative cognition verbs") + SUMIFS('hedges-ic'!D2:D313,'hedges-ic'!C2:C313,"Full verbs - Tentative linking verbs")</f>
-        <v>12060</v>
+        <f ca="1">SUMIFS('hedges-ic'!D2:D313,'hedges-ic'!C2:C313,"Adjectives - Approximative Adjectives") + SUMIFS('hedges-ic'!D2:D313,'hedges-ic'!C2:C313,"Adjectives - Adjectives of Indefinite Degree")</f>
+        <v>939</v>
       </c>
       <c r="D29" s="27">
         <f ca="1">C29/C31</f>
-        <v>0.23829282750444578</v>
+        <v>1.8553645524599881E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
